--- a/Assets/StreamingAssets/Songs/World Wide Web/Chart.xlsx
+++ b/Assets/StreamingAssets/Songs/World Wide Web/Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Xenody-master\Assets\StreamingAssets\Songs\World Wide Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FFFDE7-8C6C-4B3A-96A0-55D46E0DEDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EC93A7-1496-4337-876E-DBC71FB44528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="planes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,10 +144,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#8ee5ee</t>
+    <t>#E0EEE0</t>
   </si>
   <si>
-    <t>#E0EEE0</t>
+    <t>#f0ffff</t>
   </si>
 </sst>
 </file>
@@ -540,10 +540,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA789EFB-BCA3-4FCA-98D4-565CD71AE543}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>VLOOKUP(A2,$I$1:$J$100,2,FALSE)</f>
+        <f t="shared" ref="B2:B33" si="0">VLOOKUP(A2,$I$1:$J$99,2,FALSE)</f>
         <v>#63b8ff</v>
       </c>
       <c r="C2">
@@ -613,8 +613,8 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B65" si="0">VLOOKUP(A3,$I$1:$J$100,2,FALSE)</f>
-        <v>#8ee5ee</v>
+        <f t="shared" si="0"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C3">
         <v>32.015000000000001</v>
@@ -635,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <v>#f0ffff</v>
       </c>
       <c r="C4">
         <v>32.482999999999997</v>
@@ -666,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2"/>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <v>#f0ffff</v>
       </c>
       <c r="C5">
         <v>32.482999999999997</v>
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" s="2"/>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <v>#f0ffff</v>
       </c>
       <c r="C6">
         <v>32.951000000000001</v>
@@ -728,7 +728,7 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2"/>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <v>#f0ffff</v>
       </c>
       <c r="C7">
         <v>32.951000000000001</v>
@@ -759,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L7" s="2"/>
     </row>
@@ -790,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" s="2"/>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <v>#f0ffff</v>
       </c>
       <c r="C9">
         <v>33.420999999999999</v>
@@ -821,7 +821,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="2"/>
     </row>
@@ -852,7 +852,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2"/>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <v>#f0ffff</v>
       </c>
       <c r="C11">
         <v>33.89</v>
@@ -878,6 +878,12 @@
       </c>
       <c r="G11" t="s">
         <v>23</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
       </c>
       <c r="L11" s="2"/>
     </row>
@@ -912,7 +918,7 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <v>#f0ffff</v>
       </c>
       <c r="C13">
         <v>48.89</v>
@@ -962,7 +968,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <v>#f0ffff</v>
       </c>
       <c r="C15">
         <v>49.241999999999997</v>
@@ -1012,7 +1018,7 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <v>#f0ffff</v>
       </c>
       <c r="C17">
         <v>56.39</v>
@@ -1062,7 +1068,7 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <v>#f0ffff</v>
       </c>
       <c r="C19">
         <v>56.741999999999997</v>
@@ -1135,7 +1141,7 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <v>#f0ffff</v>
       </c>
       <c r="C22">
         <v>62.015000000000001</v>
@@ -1159,7 +1165,7 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <v>#f0ffff</v>
       </c>
       <c r="C23">
         <v>62.484000000000002</v>
@@ -1183,7 +1189,7 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <v>#f0ffff</v>
       </c>
       <c r="C24">
         <v>62.953000000000003</v>
@@ -1207,7 +1213,7 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <v>#f0ffff</v>
       </c>
       <c r="C25">
         <v>62.484000000000002</v>
@@ -1231,7 +1237,7 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <v>#f0ffff</v>
       </c>
       <c r="C26">
         <v>62.953000000000003</v>
@@ -1422,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B34:B65" si="1">VLOOKUP(A34,$I$1:$J$99,2,FALSE)</f>
         <v>#63b8ff</v>
       </c>
       <c r="C34">
@@ -1446,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C35">
@@ -1470,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C36">
@@ -1494,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C37">
@@ -1518,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C38">
@@ -1542,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C39">
@@ -1566,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C40">
@@ -1590,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C41">
@@ -1614,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C42">
@@ -1638,8 +1644,8 @@
         <v>7</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="1"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C43">
         <v>78.89</v>
@@ -1662,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C44">
@@ -1686,8 +1692,8 @@
         <v>7</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="1"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C45">
         <v>79.358999999999995</v>
@@ -1710,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="B46" t="str">
-        <f>VLOOKUP(A46,$I$1:$J$100,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C46">
@@ -1734,8 +1740,8 @@
         <v>7</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="1"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C47">
         <v>80.765000000000001</v>
@@ -1758,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="str">
-        <f>VLOOKUP(A48,$I$1:$J$100,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C48">
@@ -1782,8 +1788,8 @@
         <v>7</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="1"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C49">
         <v>81.233999999999995</v>
@@ -1806,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="str">
-        <f>VLOOKUP(A50,$I$1:$J$100,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C50">
@@ -1830,8 +1836,8 @@
         <v>7</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="1"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C51">
         <v>82.64</v>
@@ -1854,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="str">
-        <f>VLOOKUP(A52,$I$1:$J$100,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C52">
@@ -1878,8 +1884,8 @@
         <v>7</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="1"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C53">
         <v>83.108999999999995</v>
@@ -1902,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C54">
@@ -1926,8 +1932,8 @@
         <v>7</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="1"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C55">
         <v>84.515000000000001</v>
@@ -1950,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="B56" t="str">
-        <f>VLOOKUP(A56,$I$1:$J$100,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C56">
@@ -1974,8 +1980,8 @@
         <v>7</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="1"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C57">
         <v>84.983999999999995</v>
@@ -1998,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="str">
-        <f>VLOOKUP(A58,$I$1:$J$100,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C58">
@@ -2022,8 +2028,8 @@
         <v>7</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="1"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C59">
         <v>86.39</v>
@@ -2046,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="B60" t="str">
-        <f>VLOOKUP(A60,$I$1:$J$100,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C60">
@@ -2070,8 +2076,8 @@
         <v>7</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="1"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C61">
         <v>86.858999999999995</v>
@@ -2094,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C62">
@@ -2118,8 +2124,8 @@
         <v>7</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="1"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C63">
         <v>88.265000000000001</v>
@@ -2142,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="B64" t="str">
-        <f>VLOOKUP(A64,$I$1:$J$100,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#63b8ff</v>
       </c>
       <c r="C64">
@@ -2166,8 +2172,8 @@
         <v>7</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="0"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="1"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C65">
         <v>88.733999999999995</v>
@@ -2190,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="B66" t="str">
-        <f>VLOOKUP(A66,$I$1:$J$100,2,FALSE)</f>
+        <f t="shared" ref="B66:B93" si="2">VLOOKUP(A66,$I$1:$J$99,2,FALSE)</f>
         <v>#63b8ff</v>
       </c>
       <c r="C66">
@@ -2214,8 +2220,8 @@
         <v>7</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B79" si="1">VLOOKUP(A67,$I$1:$J$100,2,FALSE)</f>
-        <v>#8ee5ee</v>
+        <f t="shared" si="2"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C67">
         <v>90.14</v>
@@ -2238,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="str">
-        <f>VLOOKUP(A68,$I$1:$J$100,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>#63b8ff</v>
       </c>
       <c r="C68">
@@ -2262,8 +2268,8 @@
         <v>7</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="1"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="2"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C69">
         <v>90.608999999999995</v>
@@ -2286,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="str">
-        <f>VLOOKUP(A70,$I$1:$J$100,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>#63b8ff</v>
       </c>
       <c r="C70">
@@ -2310,8 +2316,8 @@
         <v>7</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="1"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="2"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C71">
         <v>92.015000000000001</v>
@@ -2334,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="B72" t="str">
-        <f>VLOOKUP(A72,$I$1:$J$100,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>#63b8ff</v>
       </c>
       <c r="C72">
@@ -2358,8 +2364,8 @@
         <v>7</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="1"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="2"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C73">
         <v>92.953000000000003</v>
@@ -2382,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="B74" t="str">
-        <f>VLOOKUP(A74,$I$1:$J$100,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>#63b8ff</v>
       </c>
       <c r="C74">
@@ -2392,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>108.89</v>
+        <v>123.89</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2406,8 +2412,8 @@
         <v>7</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="1"/>
-        <v>#8ee5ee</v>
+        <f t="shared" si="2"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C75">
         <v>93.421000000000006</v>
@@ -2427,23 +2433,23 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="1"/>
-        <v>#E0EEE0</v>
+        <f t="shared" si="2"/>
+        <v>#f0ffff</v>
       </c>
       <c r="C76">
-        <v>107.015</v>
+        <v>108.89</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>107.48399999999999</v>
+        <v>109.35899999999999</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="s">
         <v>23</v>
@@ -2454,20 +2460,20 @@
         <v>8</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#E0EEE0</v>
       </c>
       <c r="C77">
+        <v>107.015</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
         <v>107.48399999999999</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>107.953</v>
-      </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="s">
         <v>23</v>
@@ -2475,20 +2481,20 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#E0EEE0</v>
       </c>
       <c r="C78">
+        <v>107.48399999999999</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
         <v>107.953</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>108.42100000000001</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2502,22 +2508,478 @@
         <v>9</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#E0EEE0</v>
       </c>
       <c r="C79">
+        <v>107.953</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
         <v>108.42100000000001</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="2"/>
+        <v>#E0EEE0</v>
+      </c>
+      <c r="C80">
+        <v>108.42100000000001</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
         <v>108.89</v>
       </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>9</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="2"/>
+        <v>#E0EEE0</v>
+      </c>
+      <c r="C81">
+        <v>108.89</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>109.35899999999999</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C82">
+        <v>123.89</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>124.35899999999999</v>
+      </c>
+      <c r="F82">
+        <v>0.8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C83">
+        <v>124.35899999999999</v>
+      </c>
+      <c r="D83">
+        <v>0.8</v>
+      </c>
+      <c r="E83">
+        <v>125.765</v>
+      </c>
+      <c r="F83">
+        <v>0.8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C84">
+        <v>125.765</v>
+      </c>
+      <c r="D84">
+        <v>0.8</v>
+      </c>
+      <c r="E84">
+        <v>126.23399999999999</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C85">
+        <v>126.23399999999999</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>127.64</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C86">
+        <v>127.64</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>128.10900000000001</v>
+      </c>
+      <c r="F86">
+        <v>0.8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C87">
+        <v>128.10900000000001</v>
+      </c>
+      <c r="D87">
+        <v>0.8</v>
+      </c>
+      <c r="E87">
+        <v>129.51499999999999</v>
+      </c>
+      <c r="F87">
+        <v>0.8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C88">
+        <v>129.51499999999999</v>
+      </c>
+      <c r="D88">
+        <v>0.8</v>
+      </c>
+      <c r="E88">
+        <v>129.98400000000001</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C89">
+        <v>129.98400000000001</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>131.38999999999999</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C90">
+        <v>131.38999999999999</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>131.85900000000001</v>
+      </c>
+      <c r="F90">
+        <v>0.8</v>
+      </c>
+      <c r="G90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C91">
+        <v>131.85900000000001</v>
+      </c>
+      <c r="D91">
+        <v>0.8</v>
+      </c>
+      <c r="E91">
+        <v>133.26499999999999</v>
+      </c>
+      <c r="F91">
+        <v>0.8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C92">
+        <v>133.26499999999999</v>
+      </c>
+      <c r="D92">
+        <v>0.8</v>
+      </c>
+      <c r="E92">
+        <v>133.73400000000001</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="2"/>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C93">
+        <v>133.73400000000001</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>135.13999999999999</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" ref="B94" si="3">VLOOKUP(A94,$I$1:$J$99,2,FALSE)</f>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C94">
+        <v>135.13999999999999</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>135.60900000000001</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>10</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" ref="B95" si="4">VLOOKUP(A95,$I$1:$J$99,2,FALSE)</f>
+        <v>#f0ffff</v>
+      </c>
+      <c r="C95">
+        <v>135.13999999999999</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>138.88999999999999</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="str">
+        <f>VLOOKUP(A96,$I$1:$J$99,2,FALSE)</f>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C96">
+        <v>135.60900000000001</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>137.01499999999999</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" ref="B97" si="5">VLOOKUP(A97,$I$1:$J$99,2,FALSE)</f>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C97">
+        <v>137.01499999999999</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>138.88999999999999</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" ref="B98" si="6">VLOOKUP(A98,$I$1:$J$99,2,FALSE)</f>
+        <v>#63b8ff</v>
+      </c>
+      <c r="C98">
+        <v>138.88999999999999</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>154.828</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2531,10 +2993,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7059D0-50D6-42B0-899B-7876B4BEDB4C}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D461"/>
+  <dimension ref="A1:D668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="I421" sqref="I421"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3090,7 +3552,7 @@
         <v>18.655999999999999</v>
       </c>
       <c r="B40">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3104,7 +3566,7 @@
         <v>18.655999999999999</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3121,7 +3583,7 @@
         <v>-0.5</v>
       </c>
       <c r="C42">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3135,7 +3597,7 @@
         <v>-0.5</v>
       </c>
       <c r="C43">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3149,7 +3611,7 @@
         <v>0.5</v>
       </c>
       <c r="C44">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3163,7 +3625,7 @@
         <v>0.5</v>
       </c>
       <c r="C45">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3177,7 +3639,7 @@
         <v>-1.5</v>
       </c>
       <c r="C46">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3191,7 +3653,7 @@
         <v>-1.5</v>
       </c>
       <c r="C47">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3205,7 +3667,7 @@
         <v>1.5</v>
       </c>
       <c r="C48">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3219,7 +3681,7 @@
         <v>1.5</v>
       </c>
       <c r="C49">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3233,7 +3695,7 @@
         <v>-1.5</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3247,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3261,7 +3723,7 @@
         <v>-1.5</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3275,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3289,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3303,7 +3765,7 @@
         <v>1.5</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -3317,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3331,7 +3793,7 @@
         <v>1.5</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3821,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -3835,7 +4297,7 @@
         <v>-1.5</v>
       </c>
       <c r="C93">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -3849,7 +4311,7 @@
         <v>-1.5</v>
       </c>
       <c r="C94">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -3863,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -3877,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>4</v>
@@ -3891,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="C97">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D97">
         <v>4</v>
@@ -3905,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>4</v>
@@ -3919,7 +4381,7 @@
         <v>1.5</v>
       </c>
       <c r="C99">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>4</v>
@@ -3933,7 +4395,7 @@
         <v>1.5</v>
       </c>
       <c r="C100">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>4</v>
@@ -3947,7 +4409,7 @@
         <v>-1</v>
       </c>
       <c r="C101">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -3961,7 +4423,7 @@
         <v>-1</v>
       </c>
       <c r="C102">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D102">
         <v>4</v>
@@ -3975,7 +4437,7 @@
         <v>-1</v>
       </c>
       <c r="C103">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D103">
         <v>4</v>
@@ -3989,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <v>4</v>
@@ -4003,7 +4465,7 @@
         <v>-1.5</v>
       </c>
       <c r="C105">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D105">
         <v>4</v>
@@ -4017,7 +4479,7 @@
         <v>-1.5</v>
       </c>
       <c r="C106">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D106">
         <v>4</v>
@@ -4031,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -4045,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="C108">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -4059,7 +4521,7 @@
         <v>-0.5</v>
       </c>
       <c r="C109">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D109">
         <v>4</v>
@@ -4073,7 +4535,7 @@
         <v>-0.5</v>
       </c>
       <c r="C110">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -4087,7 +4549,7 @@
         <v>0.5</v>
       </c>
       <c r="C111">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D111">
         <v>4</v>
@@ -4101,7 +4563,7 @@
         <v>0.5</v>
       </c>
       <c r="C112">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D112">
         <v>4</v>
@@ -4213,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D120">
         <v>4</v>
@@ -4227,7 +4689,7 @@
         <v>1.5</v>
       </c>
       <c r="C121">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>4</v>
@@ -4241,7 +4703,7 @@
         <v>1.5</v>
       </c>
       <c r="C122">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D122">
         <v>4</v>
@@ -4255,7 +4717,7 @@
         <v>-1</v>
       </c>
       <c r="C123">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>4</v>
@@ -4269,7 +4731,7 @@
         <v>-1</v>
       </c>
       <c r="C124">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D124">
         <v>4</v>
@@ -4283,7 +4745,7 @@
         <v>-1</v>
       </c>
       <c r="C125">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -4297,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D126">
         <v>4</v>
@@ -4311,7 +4773,7 @@
         <v>-1.5</v>
       </c>
       <c r="C127">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D127">
         <v>4</v>
@@ -4325,7 +4787,7 @@
         <v>-1.5</v>
       </c>
       <c r="C128">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D128">
         <v>4</v>
@@ -4339,7 +4801,7 @@
         <v>1</v>
       </c>
       <c r="C129">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D129">
         <v>4</v>
@@ -4353,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C130">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D130">
         <v>4</v>
@@ -4367,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D131">
         <v>4</v>
@@ -4381,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <v>4</v>
@@ -4395,7 +4857,7 @@
         <v>1.5</v>
       </c>
       <c r="C133">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>4</v>
@@ -4409,7 +4871,7 @@
         <v>1.5</v>
       </c>
       <c r="C134">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D134">
         <v>4</v>
@@ -4423,7 +4885,7 @@
         <v>-1</v>
       </c>
       <c r="C135">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D135">
         <v>4</v>
@@ -4437,7 +4899,7 @@
         <v>-1</v>
       </c>
       <c r="C136">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D136">
         <v>4</v>
@@ -4451,7 +4913,7 @@
         <v>1.5</v>
       </c>
       <c r="C137">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D137">
         <v>4</v>
@@ -4465,7 +4927,7 @@
         <v>-0.5</v>
       </c>
       <c r="C138">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D138">
         <v>4</v>
@@ -4479,7 +4941,7 @@
         <v>0.5</v>
       </c>
       <c r="C139">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D139">
         <v>4</v>
@@ -4493,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D140">
         <v>4</v>
@@ -4507,7 +4969,7 @@
         <v>-1.5</v>
       </c>
       <c r="C141">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D141">
         <v>4</v>
@@ -4521,7 +4983,7 @@
         <v>0.8</v>
       </c>
       <c r="C142">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D142">
         <v>4</v>
@@ -4535,7 +4997,7 @@
         <v>-0.5</v>
       </c>
       <c r="C143">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D143">
         <v>4</v>
@@ -4546,10 +5008,10 @@
         <v>48.069000000000003</v>
       </c>
       <c r="B144">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="C144">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D144">
         <v>4</v>
@@ -4563,7 +5025,7 @@
         <v>-1.5</v>
       </c>
       <c r="C145">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D145">
         <v>4</v>
@@ -4577,7 +5039,7 @@
         <v>0.5</v>
       </c>
       <c r="C146">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D146">
         <v>4</v>
@@ -4591,7 +5053,7 @@
         <v>-0.5</v>
       </c>
       <c r="C147">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -4605,7 +5067,7 @@
         <v>-1</v>
       </c>
       <c r="C148">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D148">
         <v>4</v>
@@ -4619,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D149">
         <v>4</v>
@@ -4633,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D150">
         <v>4</v>
@@ -4647,7 +5109,7 @@
         <v>-1</v>
       </c>
       <c r="C151">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D151">
         <v>4</v>
@@ -4871,7 +5333,7 @@
         <v>0.5</v>
       </c>
       <c r="C167">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D167">
         <v>4</v>
@@ -4885,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="C168">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -4899,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="C169">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D169">
         <v>4</v>
@@ -4913,7 +5375,7 @@
         <v>-1</v>
       </c>
       <c r="C170">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D170">
         <v>4</v>
@@ -4927,7 +5389,7 @@
         <v>-1</v>
       </c>
       <c r="C171">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D171">
         <v>4</v>
@@ -4941,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="C172">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D172">
         <v>4</v>
@@ -5165,7 +5627,7 @@
         <v>0.5</v>
       </c>
       <c r="C188">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D188">
         <v>4</v>
@@ -5179,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="C189">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -5193,7 +5655,7 @@
         <v>-1</v>
       </c>
       <c r="C190">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -5207,7 +5669,7 @@
         <v>-1</v>
       </c>
       <c r="C191">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -5221,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -5235,7 +5697,7 @@
         <v>-1.2</v>
       </c>
       <c r="C193">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -5249,7 +5711,7 @@
         <v>1.5</v>
       </c>
       <c r="C194">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -5263,7 +5725,7 @@
         <v>-0.2</v>
       </c>
       <c r="C195">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D195">
         <v>4</v>
@@ -5277,7 +5739,7 @@
         <v>0.5</v>
       </c>
       <c r="C196">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -5291,7 +5753,7 @@
         <v>-1.2</v>
       </c>
       <c r="C197">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -5305,7 +5767,7 @@
         <v>1.5</v>
       </c>
       <c r="C198">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -5319,7 +5781,7 @@
         <v>-0.2</v>
       </c>
       <c r="C199">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D199">
         <v>4</v>
@@ -5333,7 +5795,7 @@
         <v>0.5</v>
       </c>
       <c r="C200">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -5347,7 +5809,7 @@
         <v>-1.5</v>
       </c>
       <c r="C201">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D201">
         <v>4</v>
@@ -5361,7 +5823,7 @@
         <v>0.2</v>
       </c>
       <c r="C202">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D202">
         <v>4</v>
@@ -5375,7 +5837,7 @@
         <v>-0.5</v>
       </c>
       <c r="C203">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D203">
         <v>4</v>
@@ -5389,7 +5851,7 @@
         <v>1.2</v>
       </c>
       <c r="C204">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -5403,7 +5865,7 @@
         <v>-1</v>
       </c>
       <c r="C205">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -5417,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="C206">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D206">
         <v>4</v>
@@ -5431,7 +5893,7 @@
         <v>-1.5</v>
       </c>
       <c r="C207">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D207">
         <v>4</v>
@@ -5445,7 +5907,7 @@
         <v>-0.5</v>
       </c>
       <c r="C208">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -5459,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="C209">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D209">
         <v>4</v>
@@ -5473,7 +5935,7 @@
         <v>-1</v>
       </c>
       <c r="C210">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -5487,7 +5949,7 @@
         <v>1</v>
       </c>
       <c r="C211">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -5501,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="C212">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -5515,7 +5977,7 @@
         <v>-1</v>
       </c>
       <c r="C213">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -6534,7 +6996,7 @@
         <v>74.084999999999994</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C286">
         <v>0.7</v>
@@ -6562,7 +7024,7 @@
         <v>74.436999999999998</v>
       </c>
       <c r="B288">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="C288">
         <v>0.7</v>
@@ -7920,7 +8382,7 @@
         <v>89.084999999999994</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C385">
         <v>0.7</v>
@@ -7948,7 +8410,7 @@
         <v>89.436999999999998</v>
       </c>
       <c r="B387">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="C387">
         <v>0.7</v>
@@ -8217,7 +8679,7 @@
         <v>0.5</v>
       </c>
       <c r="C406">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D406">
         <v>1</v>
@@ -8231,7 +8693,7 @@
         <v>1.5</v>
       </c>
       <c r="C407">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D407">
         <v>1</v>
@@ -8245,7 +8707,7 @@
         <v>-0.5</v>
       </c>
       <c r="C408">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -8259,7 +8721,7 @@
         <v>-1.5</v>
       </c>
       <c r="C409">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -8273,7 +8735,7 @@
         <v>1.5</v>
       </c>
       <c r="C410">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -8287,7 +8749,7 @@
         <v>0.5</v>
       </c>
       <c r="C411">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D411">
         <v>1</v>
@@ -8301,7 +8763,7 @@
         <v>-1.5</v>
       </c>
       <c r="C412">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D412">
         <v>1</v>
@@ -8315,7 +8777,7 @@
         <v>-0.5</v>
       </c>
       <c r="C413">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D413">
         <v>1</v>
@@ -8329,7 +8791,7 @@
         <v>1.5</v>
       </c>
       <c r="C414">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D414">
         <v>1</v>
@@ -8343,7 +8805,7 @@
         <v>-0.5</v>
       </c>
       <c r="C415">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -8357,7 +8819,7 @@
         <v>1.5</v>
       </c>
       <c r="C416">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D416">
         <v>1</v>
@@ -8368,10 +8830,10 @@
         <v>98.111000000000004</v>
       </c>
       <c r="B417">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C417">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D417">
         <v>1</v>
@@ -8385,7 +8847,7 @@
         <v>0.5</v>
       </c>
       <c r="C418">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D418">
         <v>1</v>
@@ -8399,7 +8861,7 @@
         <v>-1.5</v>
       </c>
       <c r="C419">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D419">
         <v>1</v>
@@ -8410,10 +8872,10 @@
         <v>99.049000000000007</v>
       </c>
       <c r="B420">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="C420">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -8427,7 +8889,7 @@
         <v>-1.5</v>
       </c>
       <c r="C421">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D421">
         <v>1</v>
@@ -8990,6 +9452,2904 @@
         <v>0.8</v>
       </c>
       <c r="D461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>109.35899999999999</v>
+      </c>
+      <c r="B462">
+        <v>1.5</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>109.35899999999999</v>
+      </c>
+      <c r="B463">
+        <v>-1.5</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>109.515</v>
+      </c>
+      <c r="B464">
+        <v>0.4</v>
+      </c>
+      <c r="C464">
+        <v>0.7</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>109.593</v>
+      </c>
+      <c r="B465">
+        <v>-0.4</v>
+      </c>
+      <c r="C465">
+        <v>0.7</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>109.67100000000001</v>
+      </c>
+      <c r="B466">
+        <v>0.4</v>
+      </c>
+      <c r="C466">
+        <v>0.7</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>109.828</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>0.7</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>109.98399999999999</v>
+      </c>
+      <c r="B468">
+        <v>-0.75</v>
+      </c>
+      <c r="C468">
+        <v>0.7</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>110.14</v>
+      </c>
+      <c r="B469">
+        <v>-1.5</v>
+      </c>
+      <c r="C469">
+        <v>0.7</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>110.29600000000001</v>
+      </c>
+      <c r="B470">
+        <v>1.5</v>
+      </c>
+      <c r="C470">
+        <v>0.7</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>110.453</v>
+      </c>
+      <c r="B471">
+        <v>0.75</v>
+      </c>
+      <c r="C471">
+        <v>0.7</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>110.60899999999999</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+      <c r="C472">
+        <v>0.7</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>111.23399999999999</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>0.7</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>111.39</v>
+      </c>
+      <c r="B474">
+        <v>-0.75</v>
+      </c>
+      <c r="C474">
+        <v>0.7</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>111.54600000000001</v>
+      </c>
+      <c r="B475">
+        <v>-1.5</v>
+      </c>
+      <c r="C475">
+        <v>0.7</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>111.703</v>
+      </c>
+      <c r="B476">
+        <v>1.5</v>
+      </c>
+      <c r="C476">
+        <v>0.7</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>112.015</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>0.7</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>112.17100000000001</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+      <c r="C478">
+        <v>0.7</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>112.48399999999999</v>
+      </c>
+      <c r="B479">
+        <v>-1.5</v>
+      </c>
+      <c r="C479">
+        <v>0.7</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>113.10899999999999</v>
+      </c>
+      <c r="B480">
+        <v>-1.5</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>113.10899999999999</v>
+      </c>
+      <c r="B481">
+        <v>1.5</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>113.265</v>
+      </c>
+      <c r="B482">
+        <v>-0.4</v>
+      </c>
+      <c r="C482">
+        <v>0.7</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>113.343</v>
+      </c>
+      <c r="B483">
+        <v>0.4</v>
+      </c>
+      <c r="C483">
+        <v>0.7</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>113.42100000000001</v>
+      </c>
+      <c r="B484">
+        <v>-0.4</v>
+      </c>
+      <c r="C484">
+        <v>0.7</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>113.578</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>0.7</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>113.73399999999999</v>
+      </c>
+      <c r="B486">
+        <v>0.75</v>
+      </c>
+      <c r="C486">
+        <v>0.7</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>113.89</v>
+      </c>
+      <c r="B487">
+        <v>1.5</v>
+      </c>
+      <c r="C487">
+        <v>0.7</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>114.04600000000001</v>
+      </c>
+      <c r="B488">
+        <v>-1.5</v>
+      </c>
+      <c r="C488">
+        <v>0.7</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>114.203</v>
+      </c>
+      <c r="B489">
+        <v>-0.75</v>
+      </c>
+      <c r="C489">
+        <v>0.7</v>
+      </c>
+      <c r="D489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>114.35899999999999</v>
+      </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
+      <c r="C490">
+        <v>0.7</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>114.98399999999999</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <v>0.7</v>
+      </c>
+      <c r="D491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>115.14</v>
+      </c>
+      <c r="B492">
+        <v>0.75</v>
+      </c>
+      <c r="C492">
+        <v>0.7</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>115.29600000000001</v>
+      </c>
+      <c r="B493">
+        <v>1.5</v>
+      </c>
+      <c r="C493">
+        <v>0.7</v>
+      </c>
+      <c r="D493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>115.453</v>
+      </c>
+      <c r="B494">
+        <v>-1.5</v>
+      </c>
+      <c r="C494">
+        <v>0.7</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>115.765</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+      <c r="C495">
+        <v>0.7</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>115.92100000000001</v>
+      </c>
+      <c r="B496">
+        <v>0</v>
+      </c>
+      <c r="C496">
+        <v>0.7</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>116.23399999999999</v>
+      </c>
+      <c r="B497">
+        <v>1.5</v>
+      </c>
+      <c r="C497">
+        <v>0.7</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>116.85899999999999</v>
+      </c>
+      <c r="B498">
+        <v>1.5</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>116.85899999999999</v>
+      </c>
+      <c r="B499">
+        <v>-1.5</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>117.015</v>
+      </c>
+      <c r="B500">
+        <v>0.4</v>
+      </c>
+      <c r="C500">
+        <v>0.7</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>117.093</v>
+      </c>
+      <c r="B501">
+        <v>-0.4</v>
+      </c>
+      <c r="C501">
+        <v>0.7</v>
+      </c>
+      <c r="D501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>117.17100000000001</v>
+      </c>
+      <c r="B502">
+        <v>0.4</v>
+      </c>
+      <c r="C502">
+        <v>0.7</v>
+      </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>117.328</v>
+      </c>
+      <c r="B503">
+        <v>0</v>
+      </c>
+      <c r="C503">
+        <v>0.7</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>117.48399999999999</v>
+      </c>
+      <c r="B504">
+        <v>-0.75</v>
+      </c>
+      <c r="C504">
+        <v>0.7</v>
+      </c>
+      <c r="D504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>117.64</v>
+      </c>
+      <c r="B505">
+        <v>-1.5</v>
+      </c>
+      <c r="C505">
+        <v>0.7</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>117.79600000000001</v>
+      </c>
+      <c r="B506">
+        <v>1.5</v>
+      </c>
+      <c r="C506">
+        <v>0.7</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>117.953</v>
+      </c>
+      <c r="B507">
+        <v>0.75</v>
+      </c>
+      <c r="C507">
+        <v>0.7</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>118.10899999999999</v>
+      </c>
+      <c r="B508">
+        <v>0</v>
+      </c>
+      <c r="C508">
+        <v>0.7</v>
+      </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>118.73399999999999</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+      <c r="C509">
+        <v>0.7</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>118.89</v>
+      </c>
+      <c r="B510">
+        <v>-0.75</v>
+      </c>
+      <c r="C510">
+        <v>0.7</v>
+      </c>
+      <c r="D510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>119.04600000000001</v>
+      </c>
+      <c r="B511">
+        <v>-1.5</v>
+      </c>
+      <c r="C511">
+        <v>0.7</v>
+      </c>
+      <c r="D511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>119.203</v>
+      </c>
+      <c r="B512">
+        <v>1.5</v>
+      </c>
+      <c r="C512">
+        <v>0.7</v>
+      </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>119.515</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+      <c r="C513">
+        <v>0.7</v>
+      </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>119.67100000000001</v>
+      </c>
+      <c r="B514">
+        <v>0</v>
+      </c>
+      <c r="C514">
+        <v>0.7</v>
+      </c>
+      <c r="D514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>119.98399999999999</v>
+      </c>
+      <c r="B515">
+        <v>-1.5</v>
+      </c>
+      <c r="C515">
+        <v>0.7</v>
+      </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>120.60899999999999</v>
+      </c>
+      <c r="B516">
+        <v>-1.5</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>120.60899999999999</v>
+      </c>
+      <c r="B517">
+        <v>1.5</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>120.765</v>
+      </c>
+      <c r="B518">
+        <v>-0.4</v>
+      </c>
+      <c r="C518">
+        <v>0.7</v>
+      </c>
+      <c r="D518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>120.843</v>
+      </c>
+      <c r="B519">
+        <v>0.4</v>
+      </c>
+      <c r="C519">
+        <v>0.7</v>
+      </c>
+      <c r="D519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>120.92100000000001</v>
+      </c>
+      <c r="B520">
+        <v>-0.4</v>
+      </c>
+      <c r="C520">
+        <v>0.7</v>
+      </c>
+      <c r="D520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>121.078</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+      <c r="C521">
+        <v>0.7</v>
+      </c>
+      <c r="D521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>121.23399999999999</v>
+      </c>
+      <c r="B522">
+        <v>0.75</v>
+      </c>
+      <c r="C522">
+        <v>0.7</v>
+      </c>
+      <c r="D522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>121.39</v>
+      </c>
+      <c r="B523">
+        <v>1.5</v>
+      </c>
+      <c r="C523">
+        <v>0.7</v>
+      </c>
+      <c r="D523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>121.54600000000001</v>
+      </c>
+      <c r="B524">
+        <v>-1.5</v>
+      </c>
+      <c r="C524">
+        <v>0.7</v>
+      </c>
+      <c r="D524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>121.703</v>
+      </c>
+      <c r="B525">
+        <v>-0.75</v>
+      </c>
+      <c r="C525">
+        <v>0.7</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>121.85899999999999</v>
+      </c>
+      <c r="B526">
+        <v>0</v>
+      </c>
+      <c r="C526">
+        <v>0.7</v>
+      </c>
+      <c r="D526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>122.015</v>
+      </c>
+      <c r="B527">
+        <v>1.5</v>
+      </c>
+      <c r="C527">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>122.17100000000001</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+      <c r="C528">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>122.327</v>
+      </c>
+      <c r="B529">
+        <v>0.5</v>
+      </c>
+      <c r="C529">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>122.483</v>
+      </c>
+      <c r="B530">
+        <v>-1.5</v>
+      </c>
+      <c r="C530">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>122.639</v>
+      </c>
+      <c r="B531">
+        <v>-1</v>
+      </c>
+      <c r="C531">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>122.79600000000001</v>
+      </c>
+      <c r="B532">
+        <v>-0.5</v>
+      </c>
+      <c r="C532">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>122.874</v>
+      </c>
+      <c r="B533">
+        <v>0.25</v>
+      </c>
+      <c r="C533">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>122.953</v>
+      </c>
+      <c r="B534">
+        <v>-1</v>
+      </c>
+      <c r="C534">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>123.10899999999999</v>
+      </c>
+      <c r="B535">
+        <v>1</v>
+      </c>
+      <c r="C535">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>123.265</v>
+      </c>
+      <c r="B536">
+        <v>1.5</v>
+      </c>
+      <c r="C536">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>123.42100000000001</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+      <c r="C537">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>123.577</v>
+      </c>
+      <c r="B538">
+        <v>-0.5</v>
+      </c>
+      <c r="C538">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>123.733</v>
+      </c>
+      <c r="B539">
+        <v>-1</v>
+      </c>
+      <c r="C539">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>124.35899999999999</v>
+      </c>
+      <c r="B540">
+        <v>-0.4</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+      <c r="D540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>124.35899999999999</v>
+      </c>
+      <c r="B541">
+        <v>1.5</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="D541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>124.515</v>
+      </c>
+      <c r="B542">
+        <v>0.5</v>
+      </c>
+      <c r="C542">
+        <v>1.3</v>
+      </c>
+      <c r="D542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>124.593</v>
+      </c>
+      <c r="B543">
+        <v>0.5</v>
+      </c>
+      <c r="C543">
+        <v>1.3</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>124.67100000000001</v>
+      </c>
+      <c r="B544">
+        <v>0.5</v>
+      </c>
+      <c r="C544">
+        <v>1.3</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>124.828</v>
+      </c>
+      <c r="B545">
+        <v>-0.8</v>
+      </c>
+      <c r="C545">
+        <v>0.7</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>124.98399999999999</v>
+      </c>
+      <c r="B546">
+        <v>-0.4</v>
+      </c>
+      <c r="C546">
+        <v>0.7</v>
+      </c>
+      <c r="D546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>125.14</v>
+      </c>
+      <c r="B547">
+        <v>-0.2</v>
+      </c>
+      <c r="C547">
+        <v>0.7</v>
+      </c>
+      <c r="D547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>125.29600000000001</v>
+      </c>
+      <c r="B548">
+        <v>0.2</v>
+      </c>
+      <c r="C548">
+        <v>0.7</v>
+      </c>
+      <c r="D548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>125.452</v>
+      </c>
+      <c r="B549">
+        <v>0.4</v>
+      </c>
+      <c r="C549">
+        <v>0.7</v>
+      </c>
+      <c r="D549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>125.608</v>
+      </c>
+      <c r="B550">
+        <v>0.8</v>
+      </c>
+      <c r="C550">
+        <v>0.7</v>
+      </c>
+      <c r="D550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>126.23399999999999</v>
+      </c>
+      <c r="B551">
+        <v>-1.5</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+      <c r="D551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>126.23399999999999</v>
+      </c>
+      <c r="B552">
+        <v>0</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>126.39</v>
+      </c>
+      <c r="B553">
+        <v>-1.5</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>126.39</v>
+      </c>
+      <c r="B554">
+        <v>0</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>126.54600000000001</v>
+      </c>
+      <c r="B555">
+        <v>-1.5</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+      <c r="D555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>126.54600000000001</v>
+      </c>
+      <c r="B556">
+        <v>0</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>127.015</v>
+      </c>
+      <c r="B557">
+        <v>-1</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>127.328</v>
+      </c>
+      <c r="B558">
+        <v>0.5</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>127.48399999999999</v>
+      </c>
+      <c r="B559">
+        <v>-0.5</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>128.10899999999998</v>
+      </c>
+      <c r="B560">
+        <v>0.4</v>
+      </c>
+      <c r="C560">
+        <v>1</v>
+      </c>
+      <c r="D560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>128.10899999999998</v>
+      </c>
+      <c r="B561">
+        <v>-1.5</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+      <c r="D561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>128.26499999999999</v>
+      </c>
+      <c r="B562">
+        <v>-0.5</v>
+      </c>
+      <c r="C562">
+        <v>1</v>
+      </c>
+      <c r="D562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>128.34300000000002</v>
+      </c>
+      <c r="B563">
+        <v>-0.5</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>128.42099999999999</v>
+      </c>
+      <c r="B564">
+        <v>-0.5</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>129.202</v>
+      </c>
+      <c r="B565">
+        <v>0.2</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>129.358</v>
+      </c>
+      <c r="B566">
+        <v>-1.4</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>129.98399999999998</v>
+      </c>
+      <c r="B567">
+        <v>1.5</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>129.98399999999998</v>
+      </c>
+      <c r="B568">
+        <v>0</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>130.13999999999999</v>
+      </c>
+      <c r="B569">
+        <v>1.5</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>130.13999999999999</v>
+      </c>
+      <c r="B570">
+        <v>0</v>
+      </c>
+      <c r="C570">
+        <v>1</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>130.29599999999999</v>
+      </c>
+      <c r="B571">
+        <v>1.5</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>130.29599999999999</v>
+      </c>
+      <c r="B572">
+        <v>0</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+      <c r="D572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>130.76499999999999</v>
+      </c>
+      <c r="B573">
+        <v>1</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>131.078</v>
+      </c>
+      <c r="B574">
+        <v>-0.5</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>131.23399999999998</v>
+      </c>
+      <c r="B575">
+        <v>0.5</v>
+      </c>
+      <c r="C575">
+        <v>1</v>
+      </c>
+      <c r="D575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>131.85899999999998</v>
+      </c>
+      <c r="B576">
+        <v>0.4</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+      <c r="D576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>131.85899999999998</v>
+      </c>
+      <c r="B577">
+        <v>-1.5</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>132.01499999999999</v>
+      </c>
+      <c r="B578">
+        <v>-0.5</v>
+      </c>
+      <c r="C578">
+        <v>1.3</v>
+      </c>
+      <c r="D578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>132.09300000000002</v>
+      </c>
+      <c r="B579">
+        <v>-0.5</v>
+      </c>
+      <c r="C579">
+        <v>1.3</v>
+      </c>
+      <c r="D579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>132.17099999999999</v>
+      </c>
+      <c r="B580">
+        <v>-0.5</v>
+      </c>
+      <c r="C580">
+        <v>1.3</v>
+      </c>
+      <c r="D580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>132.328</v>
+      </c>
+      <c r="B581">
+        <v>-1.5</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+      <c r="D581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>132.328</v>
+      </c>
+      <c r="B582">
+        <v>1.5</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+      <c r="D582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>132.48399999999998</v>
+      </c>
+      <c r="B583">
+        <v>-0.5</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+      <c r="D583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>132.48399999999998</v>
+      </c>
+      <c r="B584">
+        <v>1</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>132.63999999999999</v>
+      </c>
+      <c r="B585">
+        <v>-1.5</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+      <c r="D585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>132.63999999999999</v>
+      </c>
+      <c r="B586">
+        <v>1.5</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+      <c r="D586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>132.79599999999999</v>
+      </c>
+      <c r="B587">
+        <v>-1</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+      <c r="D587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>132.79599999999999</v>
+      </c>
+      <c r="B588">
+        <v>0.5</v>
+      </c>
+      <c r="C588">
+        <v>1</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>132.952</v>
+      </c>
+      <c r="B589">
+        <v>-1.5</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>132.952</v>
+      </c>
+      <c r="B590">
+        <v>1.5</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+      <c r="D590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>133.108</v>
+      </c>
+      <c r="B591">
+        <v>-0.7</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>133.108</v>
+      </c>
+      <c r="B592">
+        <v>0.7</v>
+      </c>
+      <c r="C592">
+        <v>1</v>
+      </c>
+      <c r="D592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>133.73399999999998</v>
+      </c>
+      <c r="B593">
+        <v>1.5</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>133.73399999999998</v>
+      </c>
+      <c r="B594">
+        <v>0</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+      <c r="D594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>133.88999999999999</v>
+      </c>
+      <c r="B595">
+        <v>1.5</v>
+      </c>
+      <c r="C595">
+        <v>1</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>133.88999999999999</v>
+      </c>
+      <c r="B596">
+        <v>0</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>134.04599999999999</v>
+      </c>
+      <c r="B597">
+        <v>1.5</v>
+      </c>
+      <c r="C597">
+        <v>1</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>134.04599999999999</v>
+      </c>
+      <c r="B598">
+        <v>0</v>
+      </c>
+      <c r="C598">
+        <v>1</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>134.51499999999999</v>
+      </c>
+      <c r="B599">
+        <v>1</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>134.828</v>
+      </c>
+      <c r="B600">
+        <v>-0.5</v>
+      </c>
+      <c r="C600">
+        <v>1</v>
+      </c>
+      <c r="D600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>134.98399999999998</v>
+      </c>
+      <c r="B601">
+        <v>0.5</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
+      </c>
+      <c r="D601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>136.703</v>
+      </c>
+      <c r="B602">
+        <v>0</v>
+      </c>
+      <c r="C602">
+        <v>0.8</v>
+      </c>
+      <c r="D602">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>136.85900000000001</v>
+      </c>
+      <c r="B603">
+        <v>-1</v>
+      </c>
+      <c r="C603">
+        <v>0.8</v>
+      </c>
+      <c r="D603">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>137.01499999999999</v>
+      </c>
+      <c r="B604">
+        <v>-1.6</v>
+      </c>
+      <c r="C604">
+        <v>0.8</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>137.01499999999999</v>
+      </c>
+      <c r="B605">
+        <v>0.5</v>
+      </c>
+      <c r="C605">
+        <v>0.8</v>
+      </c>
+      <c r="D605">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>137.17099999999999</v>
+      </c>
+      <c r="B606">
+        <v>-0.5</v>
+      </c>
+      <c r="C606">
+        <v>0.8</v>
+      </c>
+      <c r="D606">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>137.17099999999999</v>
+      </c>
+      <c r="B607">
+        <v>1.6</v>
+      </c>
+      <c r="C607">
+        <v>0.8</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>137.328</v>
+      </c>
+      <c r="B608">
+        <v>-1.2</v>
+      </c>
+      <c r="C608">
+        <v>0.8</v>
+      </c>
+      <c r="D608">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>137.328</v>
+      </c>
+      <c r="B609">
+        <v>1.2</v>
+      </c>
+      <c r="C609">
+        <v>0.8</v>
+      </c>
+      <c r="D609">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>137.48400000000001</v>
+      </c>
+      <c r="B610">
+        <v>-0.6</v>
+      </c>
+      <c r="C610">
+        <v>0.8</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>137.48400000000001</v>
+      </c>
+      <c r="B611">
+        <v>0.6</v>
+      </c>
+      <c r="C611">
+        <v>0.8</v>
+      </c>
+      <c r="D611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>137.63999999999999</v>
+      </c>
+      <c r="B612">
+        <v>0.4</v>
+      </c>
+      <c r="C612">
+        <v>0.8</v>
+      </c>
+      <c r="D612">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>137.63999999999999</v>
+      </c>
+      <c r="B613">
+        <v>1.6</v>
+      </c>
+      <c r="C613">
+        <v>0.8</v>
+      </c>
+      <c r="D613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>137.79599999999999</v>
+      </c>
+      <c r="B614">
+        <v>-1.6</v>
+      </c>
+      <c r="C614">
+        <v>0.8</v>
+      </c>
+      <c r="D614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>137.79599999999999</v>
+      </c>
+      <c r="B615">
+        <v>-0.4</v>
+      </c>
+      <c r="C615">
+        <v>0.8</v>
+      </c>
+      <c r="D615">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>137.953</v>
+      </c>
+      <c r="B616">
+        <v>-1.2</v>
+      </c>
+      <c r="C616">
+        <v>0.8</v>
+      </c>
+      <c r="D616">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>137.953</v>
+      </c>
+      <c r="B617">
+        <v>1.2</v>
+      </c>
+      <c r="C617">
+        <v>0.8</v>
+      </c>
+      <c r="D617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>138.10900000000001</v>
+      </c>
+      <c r="B618">
+        <v>-1.6</v>
+      </c>
+      <c r="C618">
+        <v>0.8</v>
+      </c>
+      <c r="D618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>138.18700000000001</v>
+      </c>
+      <c r="B619">
+        <v>0.8</v>
+      </c>
+      <c r="C619">
+        <v>0.8</v>
+      </c>
+      <c r="D619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>138.26499999999999</v>
+      </c>
+      <c r="B620">
+        <v>-1.6</v>
+      </c>
+      <c r="C620">
+        <v>0.8</v>
+      </c>
+      <c r="D620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>138.88999999999999</v>
+      </c>
+      <c r="B621">
+        <v>-1</v>
+      </c>
+      <c r="C621">
+        <v>0.7</v>
+      </c>
+      <c r="D621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>139.35900000000001</v>
+      </c>
+      <c r="B622">
+        <v>1</v>
+      </c>
+      <c r="C622">
+        <v>0.7</v>
+      </c>
+      <c r="D622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>139.67099999999999</v>
+      </c>
+      <c r="B623">
+        <v>-1.6</v>
+      </c>
+      <c r="C623">
+        <v>0.7</v>
+      </c>
+      <c r="D623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>140.13999999999999</v>
+      </c>
+      <c r="B624">
+        <v>1</v>
+      </c>
+      <c r="C624">
+        <v>0.7</v>
+      </c>
+      <c r="D624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>140.29599999999999</v>
+      </c>
+      <c r="B625">
+        <v>0</v>
+      </c>
+      <c r="C625">
+        <v>0.7</v>
+      </c>
+      <c r="D625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>140.60900000000001</v>
+      </c>
+      <c r="B626">
+        <v>-1</v>
+      </c>
+      <c r="C626">
+        <v>0.7</v>
+      </c>
+      <c r="D626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>140.76499999999999</v>
+      </c>
+      <c r="B627">
+        <v>0</v>
+      </c>
+      <c r="C627">
+        <v>0.7</v>
+      </c>
+      <c r="D627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>141.078</v>
+      </c>
+      <c r="B628">
+        <v>-1.6</v>
+      </c>
+      <c r="C628">
+        <v>0.7</v>
+      </c>
+      <c r="D628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>141.54599999999999</v>
+      </c>
+      <c r="B629">
+        <v>0.5</v>
+      </c>
+      <c r="C629">
+        <v>0.7</v>
+      </c>
+      <c r="D629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>142.01499999999999</v>
+      </c>
+      <c r="B630">
+        <v>-1</v>
+      </c>
+      <c r="C630">
+        <v>0.7</v>
+      </c>
+      <c r="D630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>142.17099999999999</v>
+      </c>
+      <c r="B631">
+        <v>0</v>
+      </c>
+      <c r="C631">
+        <v>0.7</v>
+      </c>
+      <c r="D631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>142.48400000000001</v>
+      </c>
+      <c r="B632">
+        <v>0</v>
+      </c>
+      <c r="C632">
+        <v>0.7</v>
+      </c>
+      <c r="D632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>142.63999999999999</v>
+      </c>
+      <c r="B633">
+        <v>1</v>
+      </c>
+      <c r="C633">
+        <v>0.7</v>
+      </c>
+      <c r="D633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>143.10900000000001</v>
+      </c>
+      <c r="B634">
+        <v>-1</v>
+      </c>
+      <c r="C634">
+        <v>0.7</v>
+      </c>
+      <c r="D634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>143.42099999999999</v>
+      </c>
+      <c r="B635">
+        <v>1.6</v>
+      </c>
+      <c r="C635">
+        <v>0.7</v>
+      </c>
+      <c r="D635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>143.88999999999999</v>
+      </c>
+      <c r="B636">
+        <v>-1</v>
+      </c>
+      <c r="C636">
+        <v>0.7</v>
+      </c>
+      <c r="D636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>144.04599999999999</v>
+      </c>
+      <c r="B637">
+        <v>0</v>
+      </c>
+      <c r="C637">
+        <v>0.7</v>
+      </c>
+      <c r="D637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>144.35900000000001</v>
+      </c>
+      <c r="B638">
+        <v>1</v>
+      </c>
+      <c r="C638">
+        <v>0.7</v>
+      </c>
+      <c r="D638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>144.51499999999999</v>
+      </c>
+      <c r="B639">
+        <v>0</v>
+      </c>
+      <c r="C639">
+        <v>0.7</v>
+      </c>
+      <c r="D639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>144.828</v>
+      </c>
+      <c r="B640">
+        <v>1.6</v>
+      </c>
+      <c r="C640">
+        <v>0.7</v>
+      </c>
+      <c r="D640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>145.29599999999999</v>
+      </c>
+      <c r="B641">
+        <v>-0.5</v>
+      </c>
+      <c r="C641">
+        <v>0.7</v>
+      </c>
+      <c r="D641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>145.76499999999999</v>
+      </c>
+      <c r="B642">
+        <v>1</v>
+      </c>
+      <c r="C642">
+        <v>0.7</v>
+      </c>
+      <c r="D642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>145.92099999999999</v>
+      </c>
+      <c r="B643">
+        <v>0</v>
+      </c>
+      <c r="C643">
+        <v>0.7</v>
+      </c>
+      <c r="D643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>146.23400000000001</v>
+      </c>
+      <c r="B644">
+        <v>0</v>
+      </c>
+      <c r="C644">
+        <v>0.7</v>
+      </c>
+      <c r="D644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>146.38999999999999</v>
+      </c>
+      <c r="B645">
+        <v>-1</v>
+      </c>
+      <c r="C645">
+        <v>0.7</v>
+      </c>
+      <c r="D645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>146.85900000000001</v>
+      </c>
+      <c r="B646">
+        <v>1</v>
+      </c>
+      <c r="C646">
+        <v>0.7</v>
+      </c>
+      <c r="D646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>147.17099999999999</v>
+      </c>
+      <c r="B647">
+        <v>-1.6</v>
+      </c>
+      <c r="C647">
+        <v>0.7</v>
+      </c>
+      <c r="D647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>147.63999999999999</v>
+      </c>
+      <c r="B648">
+        <v>1.2</v>
+      </c>
+      <c r="C648">
+        <v>0.7</v>
+      </c>
+      <c r="D648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>147.79599999999999</v>
+      </c>
+      <c r="B649">
+        <v>0.2</v>
+      </c>
+      <c r="C649">
+        <v>0.7</v>
+      </c>
+      <c r="D649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>148.10900000000001</v>
+      </c>
+      <c r="B650">
+        <v>-1.2</v>
+      </c>
+      <c r="C650">
+        <v>0.7</v>
+      </c>
+      <c r="D650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>148.26499999999999</v>
+      </c>
+      <c r="B651">
+        <v>-0.2</v>
+      </c>
+      <c r="C651">
+        <v>0.7</v>
+      </c>
+      <c r="D651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>148.578</v>
+      </c>
+      <c r="B652">
+        <v>-1.6</v>
+      </c>
+      <c r="C652">
+        <v>0.7</v>
+      </c>
+      <c r="D652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>149.04599999999999</v>
+      </c>
+      <c r="B653">
+        <v>1</v>
+      </c>
+      <c r="C653">
+        <v>0.7</v>
+      </c>
+      <c r="D653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>149.51499999999999</v>
+      </c>
+      <c r="B654">
+        <v>-1.5</v>
+      </c>
+      <c r="C654">
+        <v>0.7</v>
+      </c>
+      <c r="D654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>149.67099999999999</v>
+      </c>
+      <c r="B655">
+        <v>0</v>
+      </c>
+      <c r="C655">
+        <v>0.7</v>
+      </c>
+      <c r="D655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>149.98400000000001</v>
+      </c>
+      <c r="B656">
+        <v>0</v>
+      </c>
+      <c r="C656">
+        <v>0.7</v>
+      </c>
+      <c r="D656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>150.13999999999999</v>
+      </c>
+      <c r="B657">
+        <v>1.5</v>
+      </c>
+      <c r="C657">
+        <v>0.7</v>
+      </c>
+      <c r="D657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>150.60900000000001</v>
+      </c>
+      <c r="B658">
+        <v>-1</v>
+      </c>
+      <c r="C658">
+        <v>0.7</v>
+      </c>
+      <c r="D658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>150.92099999999999</v>
+      </c>
+      <c r="B659">
+        <v>0</v>
+      </c>
+      <c r="C659">
+        <v>0.7</v>
+      </c>
+      <c r="D659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>151.38999999999999</v>
+      </c>
+      <c r="B660">
+        <v>-1.4</v>
+      </c>
+      <c r="C660">
+        <v>0.7</v>
+      </c>
+      <c r="D660">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>151.54599999999999</v>
+      </c>
+      <c r="B661">
+        <v>-0.4</v>
+      </c>
+      <c r="C661">
+        <v>0.7</v>
+      </c>
+      <c r="D661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>151.85900000000001</v>
+      </c>
+      <c r="B662">
+        <v>1.4</v>
+      </c>
+      <c r="C662">
+        <v>0.7</v>
+      </c>
+      <c r="D662">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>152.01499999999999</v>
+      </c>
+      <c r="B663">
+        <v>0.4</v>
+      </c>
+      <c r="C663">
+        <v>0.7</v>
+      </c>
+      <c r="D663">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>152.328</v>
+      </c>
+      <c r="B664">
+        <v>1</v>
+      </c>
+      <c r="C664">
+        <v>0.7</v>
+      </c>
+      <c r="D664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>152.79599999999999</v>
+      </c>
+      <c r="B665">
+        <v>-1</v>
+      </c>
+      <c r="C665">
+        <v>0.7</v>
+      </c>
+      <c r="D665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>153.26499999999999</v>
+      </c>
+      <c r="B666">
+        <v>1</v>
+      </c>
+      <c r="C666">
+        <v>0.7</v>
+      </c>
+      <c r="D666">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>153.42099999999999</v>
+      </c>
+      <c r="B667">
+        <v>0.3</v>
+      </c>
+      <c r="C667">
+        <v>0.7</v>
+      </c>
+      <c r="D667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>153.73400000000001</v>
+      </c>
+      <c r="B668">
+        <v>-0.6</v>
+      </c>
+      <c r="C668">
+        <v>0.7</v>
+      </c>
+      <c r="D668">
         <v>1</v>
       </c>
     </row>
@@ -9003,10 +12363,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B2D43-E0B0-4050-83A2-AF5C6E5EE029}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193:E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13505,10 +16865,10 @@
         <v>108.89</v>
       </c>
       <c r="G128">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="H128">
-        <v>-1.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="I128" t="s">
         <v>25</v>
@@ -13517,6 +16877,2526 @@
         <v>25</v>
       </c>
       <c r="K128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>9</v>
+      </c>
+      <c r="B129">
+        <v>122</v>
+      </c>
+      <c r="C129">
+        <v>108.89</v>
+      </c>
+      <c r="D129">
+        <v>-2</v>
+      </c>
+      <c r="E129">
+        <v>-1</v>
+      </c>
+      <c r="F129">
+        <v>109.203</v>
+      </c>
+      <c r="G129">
+        <v>-0.7</v>
+      </c>
+      <c r="H129">
+        <v>0.7</v>
+      </c>
+      <c r="I129" t="s">
+        <v>25</v>
+      </c>
+      <c r="J129" t="s">
+        <v>25</v>
+      </c>
+      <c r="K129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>9</v>
+      </c>
+      <c r="B130">
+        <v>123</v>
+      </c>
+      <c r="C130">
+        <v>108.89</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>109.203</v>
+      </c>
+      <c r="G130">
+        <v>-0.7</v>
+      </c>
+      <c r="H130">
+        <v>0.7</v>
+      </c>
+      <c r="I130" t="s">
+        <v>25</v>
+      </c>
+      <c r="J130" t="s">
+        <v>25</v>
+      </c>
+      <c r="K130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>124</v>
+      </c>
+      <c r="C131">
+        <v>109.828</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131">
+        <v>110.14</v>
+      </c>
+      <c r="G131">
+        <v>-0.5</v>
+      </c>
+      <c r="H131">
+        <v>0.5</v>
+      </c>
+      <c r="I131" t="s">
+        <v>25</v>
+      </c>
+      <c r="J131" t="s">
+        <v>25</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>125</v>
+      </c>
+      <c r="C132">
+        <v>110.29600000000001</v>
+      </c>
+      <c r="D132">
+        <v>-0.5</v>
+      </c>
+      <c r="E132">
+        <v>0.5</v>
+      </c>
+      <c r="F132">
+        <v>110.60899999999999</v>
+      </c>
+      <c r="G132">
+        <v>-2</v>
+      </c>
+      <c r="H132">
+        <v>-1</v>
+      </c>
+      <c r="I132" t="s">
+        <v>25</v>
+      </c>
+      <c r="J132" t="s">
+        <v>25</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>126</v>
+      </c>
+      <c r="C133">
+        <v>110.765</v>
+      </c>
+      <c r="D133">
+        <v>0.5</v>
+      </c>
+      <c r="E133">
+        <v>1.5</v>
+      </c>
+      <c r="F133">
+        <v>110.88200000000001</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="I133" t="s">
+        <v>26</v>
+      </c>
+      <c r="J133" t="s">
+        <v>26</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>126</v>
+      </c>
+      <c r="C134">
+        <v>110.88200000000001</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134">
+        <v>111.078</v>
+      </c>
+      <c r="G134">
+        <v>-0.5</v>
+      </c>
+      <c r="H134">
+        <v>0.5</v>
+      </c>
+      <c r="I134" t="s">
+        <v>24</v>
+      </c>
+      <c r="J134" t="s">
+        <v>24</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>127</v>
+      </c>
+      <c r="C135">
+        <v>110.765</v>
+      </c>
+      <c r="D135">
+        <v>-1.5</v>
+      </c>
+      <c r="E135">
+        <v>-0.5</v>
+      </c>
+      <c r="F135">
+        <v>110.88200000000001</v>
+      </c>
+      <c r="G135">
+        <v>-2</v>
+      </c>
+      <c r="H135">
+        <v>-1</v>
+      </c>
+      <c r="I135" t="s">
+        <v>26</v>
+      </c>
+      <c r="J135" t="s">
+        <v>26</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>127</v>
+      </c>
+      <c r="C136">
+        <v>110.88200000000001</v>
+      </c>
+      <c r="D136">
+        <v>-2</v>
+      </c>
+      <c r="E136">
+        <v>-1</v>
+      </c>
+      <c r="F136">
+        <v>111.078</v>
+      </c>
+      <c r="G136">
+        <v>-0.5</v>
+      </c>
+      <c r="H136">
+        <v>0.5</v>
+      </c>
+      <c r="I136" t="s">
+        <v>24</v>
+      </c>
+      <c r="J136" t="s">
+        <v>24</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>128</v>
+      </c>
+      <c r="C137">
+        <v>111.23399999999999</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>111.54600000000001</v>
+      </c>
+      <c r="G137">
+        <v>-0.5</v>
+      </c>
+      <c r="H137">
+        <v>0.5</v>
+      </c>
+      <c r="I137" t="s">
+        <v>25</v>
+      </c>
+      <c r="J137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>129</v>
+      </c>
+      <c r="C138">
+        <v>111.703</v>
+      </c>
+      <c r="D138">
+        <v>-0.5</v>
+      </c>
+      <c r="E138">
+        <v>0.5</v>
+      </c>
+      <c r="F138">
+        <v>112.015</v>
+      </c>
+      <c r="G138">
+        <v>-2</v>
+      </c>
+      <c r="H138">
+        <v>-1</v>
+      </c>
+      <c r="I138" t="s">
+        <v>25</v>
+      </c>
+      <c r="J138" t="s">
+        <v>25</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>130</v>
+      </c>
+      <c r="C139">
+        <v>112.17100000000001</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>112.48399999999999</v>
+      </c>
+      <c r="G139">
+        <v>-0.5</v>
+      </c>
+      <c r="H139">
+        <v>0.5</v>
+      </c>
+      <c r="I139" t="s">
+        <v>25</v>
+      </c>
+      <c r="J139" t="s">
+        <v>25</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>131</v>
+      </c>
+      <c r="C140">
+        <v>112.64</v>
+      </c>
+      <c r="D140">
+        <v>-1.5</v>
+      </c>
+      <c r="E140">
+        <v>-0.5</v>
+      </c>
+      <c r="F140">
+        <v>112.953</v>
+      </c>
+      <c r="G140">
+        <v>0.5</v>
+      </c>
+      <c r="H140">
+        <v>1.5</v>
+      </c>
+      <c r="I140" t="s">
+        <v>25</v>
+      </c>
+      <c r="J140" t="s">
+        <v>25</v>
+      </c>
+      <c r="K140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>132</v>
+      </c>
+      <c r="C141">
+        <v>112.64</v>
+      </c>
+      <c r="D141">
+        <v>0.5</v>
+      </c>
+      <c r="E141">
+        <v>1.5</v>
+      </c>
+      <c r="F141">
+        <v>112.953</v>
+      </c>
+      <c r="G141">
+        <v>-1.5</v>
+      </c>
+      <c r="H141">
+        <v>-0.5</v>
+      </c>
+      <c r="I141" t="s">
+        <v>25</v>
+      </c>
+      <c r="J141" t="s">
+        <v>25</v>
+      </c>
+      <c r="K141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>133</v>
+      </c>
+      <c r="C142">
+        <v>113.578</v>
+      </c>
+      <c r="D142">
+        <v>-2</v>
+      </c>
+      <c r="E142">
+        <v>-1</v>
+      </c>
+      <c r="F142">
+        <v>113.89</v>
+      </c>
+      <c r="G142">
+        <v>-0.5</v>
+      </c>
+      <c r="H142">
+        <v>0.5</v>
+      </c>
+      <c r="I142" t="s">
+        <v>25</v>
+      </c>
+      <c r="J142" t="s">
+        <v>25</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>134</v>
+      </c>
+      <c r="C143">
+        <v>114.04600000000001</v>
+      </c>
+      <c r="D143">
+        <v>-0.5</v>
+      </c>
+      <c r="E143">
+        <v>0.5</v>
+      </c>
+      <c r="F143">
+        <v>114.35899999999999</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143" t="s">
+        <v>25</v>
+      </c>
+      <c r="J143" t="s">
+        <v>25</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>135</v>
+      </c>
+      <c r="C144">
+        <v>114.515</v>
+      </c>
+      <c r="D144">
+        <v>0.5</v>
+      </c>
+      <c r="E144">
+        <v>1.5</v>
+      </c>
+      <c r="F144">
+        <v>114.63200000000001</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144" t="s">
+        <v>26</v>
+      </c>
+      <c r="J144" t="s">
+        <v>26</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>135</v>
+      </c>
+      <c r="C145">
+        <v>114.63200000000001</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145">
+        <v>114.828</v>
+      </c>
+      <c r="G145">
+        <v>-0.5</v>
+      </c>
+      <c r="H145">
+        <v>0.5</v>
+      </c>
+      <c r="I145" t="s">
+        <v>24</v>
+      </c>
+      <c r="J145" t="s">
+        <v>24</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>136</v>
+      </c>
+      <c r="C146">
+        <v>114.515</v>
+      </c>
+      <c r="D146">
+        <v>-1.5</v>
+      </c>
+      <c r="E146">
+        <v>-0.5</v>
+      </c>
+      <c r="F146">
+        <v>114.63200000000001</v>
+      </c>
+      <c r="G146">
+        <v>-2</v>
+      </c>
+      <c r="H146">
+        <v>-1</v>
+      </c>
+      <c r="I146" t="s">
+        <v>26</v>
+      </c>
+      <c r="J146" t="s">
+        <v>26</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>136</v>
+      </c>
+      <c r="C147">
+        <v>114.63200000000001</v>
+      </c>
+      <c r="D147">
+        <v>-2</v>
+      </c>
+      <c r="E147">
+        <v>-1</v>
+      </c>
+      <c r="F147">
+        <v>114.828</v>
+      </c>
+      <c r="G147">
+        <v>-0.5</v>
+      </c>
+      <c r="H147">
+        <v>0.5</v>
+      </c>
+      <c r="I147" t="s">
+        <v>24</v>
+      </c>
+      <c r="J147" t="s">
+        <v>24</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>137</v>
+      </c>
+      <c r="C148">
+        <v>114.98399999999999</v>
+      </c>
+      <c r="D148">
+        <v>-2</v>
+      </c>
+      <c r="E148">
+        <v>-1</v>
+      </c>
+      <c r="F148">
+        <v>115.29600000000001</v>
+      </c>
+      <c r="G148">
+        <v>-0.5</v>
+      </c>
+      <c r="H148">
+        <v>0.5</v>
+      </c>
+      <c r="I148" t="s">
+        <v>25</v>
+      </c>
+      <c r="J148" t="s">
+        <v>25</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>138</v>
+      </c>
+      <c r="C149">
+        <v>115.453</v>
+      </c>
+      <c r="D149">
+        <v>-0.5</v>
+      </c>
+      <c r="E149">
+        <v>0.5</v>
+      </c>
+      <c r="F149">
+        <v>115.765</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149" t="s">
+        <v>25</v>
+      </c>
+      <c r="J149" t="s">
+        <v>25</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>139</v>
+      </c>
+      <c r="C150">
+        <v>115.92100000000001</v>
+      </c>
+      <c r="D150">
+        <v>-2</v>
+      </c>
+      <c r="E150">
+        <v>-1</v>
+      </c>
+      <c r="F150">
+        <v>116.23399999999999</v>
+      </c>
+      <c r="G150">
+        <v>-0.5</v>
+      </c>
+      <c r="H150">
+        <v>0.5</v>
+      </c>
+      <c r="I150" t="s">
+        <v>25</v>
+      </c>
+      <c r="J150" t="s">
+        <v>25</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>140</v>
+      </c>
+      <c r="C151">
+        <v>116.39</v>
+      </c>
+      <c r="D151">
+        <v>0.5</v>
+      </c>
+      <c r="E151">
+        <v>1.5</v>
+      </c>
+      <c r="F151">
+        <v>116.703</v>
+      </c>
+      <c r="G151">
+        <v>-1.5</v>
+      </c>
+      <c r="H151">
+        <v>-0.5</v>
+      </c>
+      <c r="I151" t="s">
+        <v>25</v>
+      </c>
+      <c r="J151" t="s">
+        <v>25</v>
+      </c>
+      <c r="K151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>141</v>
+      </c>
+      <c r="C152">
+        <v>116.39</v>
+      </c>
+      <c r="D152">
+        <v>-1.5</v>
+      </c>
+      <c r="E152">
+        <v>-0.5</v>
+      </c>
+      <c r="F152">
+        <v>116.703</v>
+      </c>
+      <c r="G152">
+        <v>0.5</v>
+      </c>
+      <c r="H152">
+        <v>1.5</v>
+      </c>
+      <c r="I152" t="s">
+        <v>25</v>
+      </c>
+      <c r="J152" t="s">
+        <v>25</v>
+      </c>
+      <c r="K152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>142</v>
+      </c>
+      <c r="C153">
+        <v>117.328</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>117.64</v>
+      </c>
+      <c r="G153">
+        <v>-0.5</v>
+      </c>
+      <c r="H153">
+        <v>0.5</v>
+      </c>
+      <c r="I153" t="s">
+        <v>25</v>
+      </c>
+      <c r="J153" t="s">
+        <v>25</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>143</v>
+      </c>
+      <c r="C154">
+        <v>117.79600000000001</v>
+      </c>
+      <c r="D154">
+        <v>-0.5</v>
+      </c>
+      <c r="E154">
+        <v>0.5</v>
+      </c>
+      <c r="F154">
+        <v>118.10899999999999</v>
+      </c>
+      <c r="G154">
+        <v>-2</v>
+      </c>
+      <c r="H154">
+        <v>-1</v>
+      </c>
+      <c r="I154" t="s">
+        <v>25</v>
+      </c>
+      <c r="J154" t="s">
+        <v>25</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>144</v>
+      </c>
+      <c r="C155">
+        <v>118.265</v>
+      </c>
+      <c r="D155">
+        <v>0.5</v>
+      </c>
+      <c r="E155">
+        <v>1.5</v>
+      </c>
+      <c r="F155">
+        <v>118.38200000000001</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155" t="s">
+        <v>26</v>
+      </c>
+      <c r="J155" t="s">
+        <v>26</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>144</v>
+      </c>
+      <c r="C156">
+        <v>118.38200000000001</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>118.578</v>
+      </c>
+      <c r="G156">
+        <v>-0.5</v>
+      </c>
+      <c r="H156">
+        <v>0.5</v>
+      </c>
+      <c r="I156" t="s">
+        <v>24</v>
+      </c>
+      <c r="J156" t="s">
+        <v>24</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>145</v>
+      </c>
+      <c r="C157">
+        <v>118.265</v>
+      </c>
+      <c r="D157">
+        <v>-1.5</v>
+      </c>
+      <c r="E157">
+        <v>-0.5</v>
+      </c>
+      <c r="F157">
+        <v>118.38200000000001</v>
+      </c>
+      <c r="G157">
+        <v>-2</v>
+      </c>
+      <c r="H157">
+        <v>-1</v>
+      </c>
+      <c r="I157" t="s">
+        <v>26</v>
+      </c>
+      <c r="J157" t="s">
+        <v>26</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>145</v>
+      </c>
+      <c r="C158">
+        <v>118.38200000000001</v>
+      </c>
+      <c r="D158">
+        <v>-2</v>
+      </c>
+      <c r="E158">
+        <v>-1</v>
+      </c>
+      <c r="F158">
+        <v>118.578</v>
+      </c>
+      <c r="G158">
+        <v>-0.5</v>
+      </c>
+      <c r="H158">
+        <v>0.5</v>
+      </c>
+      <c r="I158" t="s">
+        <v>24</v>
+      </c>
+      <c r="J158" t="s">
+        <v>24</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>146</v>
+      </c>
+      <c r="C159">
+        <v>118.73399999999999</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>119.04600000000001</v>
+      </c>
+      <c r="G159">
+        <v>-0.5</v>
+      </c>
+      <c r="H159">
+        <v>0.5</v>
+      </c>
+      <c r="I159" t="s">
+        <v>25</v>
+      </c>
+      <c r="J159" t="s">
+        <v>25</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>147</v>
+      </c>
+      <c r="C160">
+        <v>119.203</v>
+      </c>
+      <c r="D160">
+        <v>-0.5</v>
+      </c>
+      <c r="E160">
+        <v>0.5</v>
+      </c>
+      <c r="F160">
+        <v>119.515</v>
+      </c>
+      <c r="G160">
+        <v>-2</v>
+      </c>
+      <c r="H160">
+        <v>-1</v>
+      </c>
+      <c r="I160" t="s">
+        <v>25</v>
+      </c>
+      <c r="J160" t="s">
+        <v>25</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>148</v>
+      </c>
+      <c r="C161">
+        <v>119.67100000000001</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161">
+        <v>119.98399999999999</v>
+      </c>
+      <c r="G161">
+        <v>-0.5</v>
+      </c>
+      <c r="H161">
+        <v>0.5</v>
+      </c>
+      <c r="I161" t="s">
+        <v>25</v>
+      </c>
+      <c r="J161" t="s">
+        <v>25</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>149</v>
+      </c>
+      <c r="C162">
+        <v>120.14</v>
+      </c>
+      <c r="D162">
+        <v>-1.5</v>
+      </c>
+      <c r="E162">
+        <v>-0.5</v>
+      </c>
+      <c r="F162">
+        <v>120.453</v>
+      </c>
+      <c r="G162">
+        <v>0.5</v>
+      </c>
+      <c r="H162">
+        <v>1.5</v>
+      </c>
+      <c r="I162" t="s">
+        <v>25</v>
+      </c>
+      <c r="J162" t="s">
+        <v>25</v>
+      </c>
+      <c r="K162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>150</v>
+      </c>
+      <c r="C163">
+        <v>120.14</v>
+      </c>
+      <c r="D163">
+        <v>0.5</v>
+      </c>
+      <c r="E163">
+        <v>1.5</v>
+      </c>
+      <c r="F163">
+        <v>120.453</v>
+      </c>
+      <c r="G163">
+        <v>-1.5</v>
+      </c>
+      <c r="H163">
+        <v>-0.5</v>
+      </c>
+      <c r="I163" t="s">
+        <v>25</v>
+      </c>
+      <c r="J163" t="s">
+        <v>25</v>
+      </c>
+      <c r="K163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>151</v>
+      </c>
+      <c r="C164">
+        <v>121.078</v>
+      </c>
+      <c r="D164">
+        <v>-2</v>
+      </c>
+      <c r="E164">
+        <v>-1</v>
+      </c>
+      <c r="F164">
+        <v>121.39</v>
+      </c>
+      <c r="G164">
+        <v>-0.5</v>
+      </c>
+      <c r="H164">
+        <v>0.5</v>
+      </c>
+      <c r="I164" t="s">
+        <v>25</v>
+      </c>
+      <c r="J164" t="s">
+        <v>25</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>152</v>
+      </c>
+      <c r="C165">
+        <v>121.54600000000001</v>
+      </c>
+      <c r="D165">
+        <v>-0.5</v>
+      </c>
+      <c r="E165">
+        <v>0.5</v>
+      </c>
+      <c r="F165">
+        <v>121.85899999999999</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165" t="s">
+        <v>25</v>
+      </c>
+      <c r="J165" t="s">
+        <v>25</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>153</v>
+      </c>
+      <c r="C166">
+        <v>123.89</v>
+      </c>
+      <c r="D166">
+        <v>0.6</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <v>124.203</v>
+      </c>
+      <c r="G166">
+        <v>-0.5</v>
+      </c>
+      <c r="H166">
+        <v>0.9</v>
+      </c>
+      <c r="I166" t="s">
+        <v>25</v>
+      </c>
+      <c r="J166" t="s">
+        <v>25</v>
+      </c>
+      <c r="K166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>154</v>
+      </c>
+      <c r="C167">
+        <v>123.89</v>
+      </c>
+      <c r="D167">
+        <v>-0.9</v>
+      </c>
+      <c r="E167">
+        <v>0.5</v>
+      </c>
+      <c r="F167">
+        <v>124.203</v>
+      </c>
+      <c r="G167">
+        <v>-2</v>
+      </c>
+      <c r="H167">
+        <v>-0.6</v>
+      </c>
+      <c r="I167" t="s">
+        <v>25</v>
+      </c>
+      <c r="J167" t="s">
+        <v>25</v>
+      </c>
+      <c r="K167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>155</v>
+      </c>
+      <c r="C168">
+        <v>125.765</v>
+      </c>
+      <c r="D168">
+        <v>-2</v>
+      </c>
+      <c r="E168">
+        <v>-0.6</v>
+      </c>
+      <c r="F168">
+        <v>126.078</v>
+      </c>
+      <c r="G168">
+        <v>-0.9</v>
+      </c>
+      <c r="H168">
+        <v>0.5</v>
+      </c>
+      <c r="I168" t="s">
+        <v>25</v>
+      </c>
+      <c r="J168" t="s">
+        <v>25</v>
+      </c>
+      <c r="K168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>156</v>
+      </c>
+      <c r="C169">
+        <v>125.765</v>
+      </c>
+      <c r="D169">
+        <v>-0.5</v>
+      </c>
+      <c r="E169">
+        <v>0.9</v>
+      </c>
+      <c r="F169">
+        <v>126.078</v>
+      </c>
+      <c r="G169">
+        <v>0.6</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="I169" t="s">
+        <v>25</v>
+      </c>
+      <c r="J169" t="s">
+        <v>25</v>
+      </c>
+      <c r="K169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170">
+        <v>157</v>
+      </c>
+      <c r="C170">
+        <v>126.703</v>
+      </c>
+      <c r="D170">
+        <v>-2</v>
+      </c>
+      <c r="E170">
+        <v>-0.8</v>
+      </c>
+      <c r="F170">
+        <v>126.82</v>
+      </c>
+      <c r="G170">
+        <v>0.4</v>
+      </c>
+      <c r="H170">
+        <v>1.6</v>
+      </c>
+      <c r="I170" t="s">
+        <v>25</v>
+      </c>
+      <c r="J170" t="s">
+        <v>25</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>157</v>
+      </c>
+      <c r="C171">
+        <v>126.82</v>
+      </c>
+      <c r="D171">
+        <v>0.4</v>
+      </c>
+      <c r="E171">
+        <v>1.6</v>
+      </c>
+      <c r="F171">
+        <v>127.17100000000001</v>
+      </c>
+      <c r="G171">
+        <v>0.4</v>
+      </c>
+      <c r="H171">
+        <v>1.6</v>
+      </c>
+      <c r="I171" t="s">
+        <v>25</v>
+      </c>
+      <c r="J171" t="s">
+        <v>25</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>158</v>
+      </c>
+      <c r="C172">
+        <v>127.64</v>
+      </c>
+      <c r="D172">
+        <v>-2</v>
+      </c>
+      <c r="E172">
+        <v>-0.6</v>
+      </c>
+      <c r="F172">
+        <v>127.953</v>
+      </c>
+      <c r="G172">
+        <v>-0.9</v>
+      </c>
+      <c r="H172">
+        <v>0.5</v>
+      </c>
+      <c r="I172" t="s">
+        <v>25</v>
+      </c>
+      <c r="J172" t="s">
+        <v>25</v>
+      </c>
+      <c r="K172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>159</v>
+      </c>
+      <c r="C173">
+        <v>127.64</v>
+      </c>
+      <c r="D173">
+        <v>-0.5</v>
+      </c>
+      <c r="E173">
+        <v>0.9</v>
+      </c>
+      <c r="F173">
+        <v>127.953</v>
+      </c>
+      <c r="G173">
+        <v>0.6</v>
+      </c>
+      <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173" t="s">
+        <v>25</v>
+      </c>
+      <c r="J173" t="s">
+        <v>25</v>
+      </c>
+      <c r="K173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>160</v>
+      </c>
+      <c r="C174">
+        <v>129.51499999999999</v>
+      </c>
+      <c r="D174">
+        <v>0.6</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>129.828</v>
+      </c>
+      <c r="G174">
+        <v>-0.5</v>
+      </c>
+      <c r="H174">
+        <v>0.9</v>
+      </c>
+      <c r="I174" t="s">
+        <v>25</v>
+      </c>
+      <c r="J174" t="s">
+        <v>25</v>
+      </c>
+      <c r="K174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <v>161</v>
+      </c>
+      <c r="C175">
+        <v>129.51499999999999</v>
+      </c>
+      <c r="D175">
+        <v>-0.9</v>
+      </c>
+      <c r="E175">
+        <v>0.5</v>
+      </c>
+      <c r="F175">
+        <v>129.828</v>
+      </c>
+      <c r="G175">
+        <v>-2</v>
+      </c>
+      <c r="H175">
+        <v>-0.6</v>
+      </c>
+      <c r="I175" t="s">
+        <v>25</v>
+      </c>
+      <c r="J175" t="s">
+        <v>25</v>
+      </c>
+      <c r="K175">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176">
+        <v>162</v>
+      </c>
+      <c r="C176">
+        <v>130.453</v>
+      </c>
+      <c r="D176">
+        <v>0.8</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176">
+        <v>130.57</v>
+      </c>
+      <c r="G176">
+        <v>-1.6</v>
+      </c>
+      <c r="H176">
+        <v>-0.4</v>
+      </c>
+      <c r="I176" t="s">
+        <v>25</v>
+      </c>
+      <c r="J176" t="s">
+        <v>25</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>162</v>
+      </c>
+      <c r="C177">
+        <v>130.57</v>
+      </c>
+      <c r="D177">
+        <v>-1.6</v>
+      </c>
+      <c r="E177">
+        <v>-0.4</v>
+      </c>
+      <c r="F177">
+        <v>130.92099999999999</v>
+      </c>
+      <c r="G177">
+        <v>-1.6</v>
+      </c>
+      <c r="H177">
+        <v>-0.4</v>
+      </c>
+      <c r="I177" t="s">
+        <v>25</v>
+      </c>
+      <c r="J177" t="s">
+        <v>25</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <v>163</v>
+      </c>
+      <c r="C178">
+        <v>131.38999999999999</v>
+      </c>
+      <c r="D178">
+        <v>-2</v>
+      </c>
+      <c r="E178">
+        <v>-0.6</v>
+      </c>
+      <c r="F178">
+        <v>131.703</v>
+      </c>
+      <c r="G178">
+        <v>-0.9</v>
+      </c>
+      <c r="H178">
+        <v>0.5</v>
+      </c>
+      <c r="I178" t="s">
+        <v>25</v>
+      </c>
+      <c r="J178" t="s">
+        <v>25</v>
+      </c>
+      <c r="K178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>164</v>
+      </c>
+      <c r="C179">
+        <v>131.38999999999999</v>
+      </c>
+      <c r="D179">
+        <v>-0.5</v>
+      </c>
+      <c r="E179">
+        <v>0.9</v>
+      </c>
+      <c r="F179">
+        <v>131.703</v>
+      </c>
+      <c r="G179">
+        <v>0.6</v>
+      </c>
+      <c r="H179">
+        <v>2</v>
+      </c>
+      <c r="I179" t="s">
+        <v>25</v>
+      </c>
+      <c r="J179" t="s">
+        <v>25</v>
+      </c>
+      <c r="K179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>165</v>
+      </c>
+      <c r="C180">
+        <v>133.26499999999999</v>
+      </c>
+      <c r="D180">
+        <v>0.6</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180">
+        <v>133.578</v>
+      </c>
+      <c r="G180">
+        <v>-0.5</v>
+      </c>
+      <c r="H180">
+        <v>0.9</v>
+      </c>
+      <c r="I180" t="s">
+        <v>25</v>
+      </c>
+      <c r="J180" t="s">
+        <v>25</v>
+      </c>
+      <c r="K180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>166</v>
+      </c>
+      <c r="C181">
+        <v>133.26499999999999</v>
+      </c>
+      <c r="D181">
+        <v>-0.9</v>
+      </c>
+      <c r="E181">
+        <v>0.5</v>
+      </c>
+      <c r="F181">
+        <v>133.578</v>
+      </c>
+      <c r="G181">
+        <v>-2</v>
+      </c>
+      <c r="H181">
+        <v>-0.6</v>
+      </c>
+      <c r="I181" t="s">
+        <v>25</v>
+      </c>
+      <c r="J181" t="s">
+        <v>25</v>
+      </c>
+      <c r="K181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>167</v>
+      </c>
+      <c r="C182">
+        <v>134.203</v>
+      </c>
+      <c r="D182">
+        <v>0.8</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182">
+        <v>134.32</v>
+      </c>
+      <c r="G182">
+        <v>-1.6</v>
+      </c>
+      <c r="H182">
+        <v>-0.4</v>
+      </c>
+      <c r="I182" t="s">
+        <v>25</v>
+      </c>
+      <c r="J182" t="s">
+        <v>25</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>167</v>
+      </c>
+      <c r="C183">
+        <v>134.32</v>
+      </c>
+      <c r="D183">
+        <v>-1.6</v>
+      </c>
+      <c r="E183">
+        <v>-0.4</v>
+      </c>
+      <c r="F183">
+        <v>134.67099999999999</v>
+      </c>
+      <c r="G183">
+        <v>-1.6</v>
+      </c>
+      <c r="H183">
+        <v>-0.4</v>
+      </c>
+      <c r="I183" t="s">
+        <v>25</v>
+      </c>
+      <c r="J183" t="s">
+        <v>25</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>168</v>
+      </c>
+      <c r="C184">
+        <v>135.13999999999999</v>
+      </c>
+      <c r="D184">
+        <v>0.6</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>135.453</v>
+      </c>
+      <c r="G184">
+        <v>-0.5</v>
+      </c>
+      <c r="H184">
+        <v>0.9</v>
+      </c>
+      <c r="I184" t="s">
+        <v>25</v>
+      </c>
+      <c r="J184" t="s">
+        <v>25</v>
+      </c>
+      <c r="K184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>169</v>
+      </c>
+      <c r="C185">
+        <v>135.13999999999999</v>
+      </c>
+      <c r="D185">
+        <v>-0.9</v>
+      </c>
+      <c r="E185">
+        <v>0.5</v>
+      </c>
+      <c r="F185">
+        <v>135.453</v>
+      </c>
+      <c r="G185">
+        <v>-2</v>
+      </c>
+      <c r="H185">
+        <v>-0.6</v>
+      </c>
+      <c r="I185" t="s">
+        <v>25</v>
+      </c>
+      <c r="J185" t="s">
+        <v>25</v>
+      </c>
+      <c r="K185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>10</v>
+      </c>
+      <c r="B186">
+        <v>170</v>
+      </c>
+      <c r="C186">
+        <v>135.60900000000001</v>
+      </c>
+      <c r="D186">
+        <v>0.8</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="F186">
+        <v>135.76499999999999</v>
+      </c>
+      <c r="G186">
+        <v>0.8</v>
+      </c>
+      <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186" t="s">
+        <v>25</v>
+      </c>
+      <c r="J186" t="s">
+        <v>25</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>10</v>
+      </c>
+      <c r="B187">
+        <v>171</v>
+      </c>
+      <c r="C187">
+        <v>135.76499999999999</v>
+      </c>
+      <c r="D187">
+        <v>-0.8</v>
+      </c>
+      <c r="E187">
+        <v>0.4</v>
+      </c>
+      <c r="F187">
+        <v>135.92099999999999</v>
+      </c>
+      <c r="G187">
+        <v>-0.8</v>
+      </c>
+      <c r="H187">
+        <v>0.4</v>
+      </c>
+      <c r="I187" t="s">
+        <v>25</v>
+      </c>
+      <c r="J187" t="s">
+        <v>25</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>172</v>
+      </c>
+      <c r="C188">
+        <v>135.92099999999999</v>
+      </c>
+      <c r="D188">
+        <v>-0.2</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>136.077</v>
+      </c>
+      <c r="G188">
+        <v>-0.2</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188" t="s">
+        <v>25</v>
+      </c>
+      <c r="J188" t="s">
+        <v>25</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>173</v>
+      </c>
+      <c r="C189">
+        <v>136.077</v>
+      </c>
+      <c r="D189">
+        <v>-2</v>
+      </c>
+      <c r="E189">
+        <v>-0.8</v>
+      </c>
+      <c r="F189">
+        <v>136.233</v>
+      </c>
+      <c r="G189">
+        <v>-2</v>
+      </c>
+      <c r="H189">
+        <v>-0.8</v>
+      </c>
+      <c r="I189" t="s">
+        <v>25</v>
+      </c>
+      <c r="J189" t="s">
+        <v>25</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>10</v>
+      </c>
+      <c r="B190">
+        <v>174</v>
+      </c>
+      <c r="C190">
+        <v>136.233</v>
+      </c>
+      <c r="D190">
+        <v>-1.2</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>136.38900000000001</v>
+      </c>
+      <c r="G190">
+        <v>-1.2</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190" t="s">
+        <v>25</v>
+      </c>
+      <c r="J190" t="s">
+        <v>25</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>10</v>
+      </c>
+      <c r="B191">
+        <v>175</v>
+      </c>
+      <c r="C191">
+        <v>136.38900000000001</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>1.2</v>
+      </c>
+      <c r="F191">
+        <v>136.54599999999999</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>1.2</v>
+      </c>
+      <c r="I191" t="s">
+        <v>25</v>
+      </c>
+      <c r="J191" t="s">
+        <v>25</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>176</v>
+      </c>
+      <c r="C192">
+        <v>136.54599999999999</v>
+      </c>
+      <c r="D192">
+        <v>0.8</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>136.703</v>
+      </c>
+      <c r="G192">
+        <v>0.8</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192" t="s">
+        <v>25</v>
+      </c>
+      <c r="J192" t="s">
+        <v>25</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>177</v>
+      </c>
+      <c r="C193">
+        <v>138.42099999999999</v>
+      </c>
+      <c r="D193">
+        <v>-0.8</v>
+      </c>
+      <c r="E193">
+        <v>0.4</v>
+      </c>
+      <c r="F193">
+        <v>138.46</v>
+      </c>
+      <c r="G193">
+        <v>-0.8</v>
+      </c>
+      <c r="H193">
+        <v>0.4</v>
+      </c>
+      <c r="I193" t="s">
+        <v>25</v>
+      </c>
+      <c r="J193" t="s">
+        <v>25</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <v>177</v>
+      </c>
+      <c r="C194">
+        <v>138.46</v>
+      </c>
+      <c r="D194">
+        <v>-0.4</v>
+      </c>
+      <c r="E194">
+        <v>0.8</v>
+      </c>
+      <c r="F194">
+        <v>138.499</v>
+      </c>
+      <c r="G194">
+        <v>-0.4</v>
+      </c>
+      <c r="H194">
+        <v>0.8</v>
+      </c>
+      <c r="I194" t="s">
+        <v>25</v>
+      </c>
+      <c r="J194" t="s">
+        <v>25</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <v>177</v>
+      </c>
+      <c r="C195">
+        <v>138.499</v>
+      </c>
+      <c r="D195">
+        <v>-0.8</v>
+      </c>
+      <c r="E195">
+        <v>0.4</v>
+      </c>
+      <c r="F195">
+        <v>138.53800000000001</v>
+      </c>
+      <c r="G195">
+        <v>-0.8</v>
+      </c>
+      <c r="H195">
+        <v>0.4</v>
+      </c>
+      <c r="I195" t="s">
+        <v>25</v>
+      </c>
+      <c r="J195" t="s">
+        <v>25</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <v>177</v>
+      </c>
+      <c r="C196">
+        <v>138.53800000000001</v>
+      </c>
+      <c r="D196">
+        <v>-0.4</v>
+      </c>
+      <c r="E196">
+        <v>0.8</v>
+      </c>
+      <c r="F196">
+        <v>138.577</v>
+      </c>
+      <c r="G196">
+        <v>-0.4</v>
+      </c>
+      <c r="H196">
+        <v>0.8</v>
+      </c>
+      <c r="I196" t="s">
+        <v>25</v>
+      </c>
+      <c r="J196" t="s">
+        <v>25</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>177</v>
+      </c>
+      <c r="C197">
+        <v>138.577</v>
+      </c>
+      <c r="D197">
+        <v>-0.8</v>
+      </c>
+      <c r="E197">
+        <v>0.4</v>
+      </c>
+      <c r="F197">
+        <v>138.61600000000001</v>
+      </c>
+      <c r="G197">
+        <v>-0.8</v>
+      </c>
+      <c r="H197">
+        <v>0.4</v>
+      </c>
+      <c r="I197" t="s">
+        <v>25</v>
+      </c>
+      <c r="J197" t="s">
+        <v>25</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>177</v>
+      </c>
+      <c r="C198">
+        <v>138.61600000000001</v>
+      </c>
+      <c r="D198">
+        <v>-0.4</v>
+      </c>
+      <c r="E198">
+        <v>0.8</v>
+      </c>
+      <c r="F198">
+        <v>138.655</v>
+      </c>
+      <c r="G198">
+        <v>-0.4</v>
+      </c>
+      <c r="H198">
+        <v>0.8</v>
+      </c>
+      <c r="I198" t="s">
+        <v>25</v>
+      </c>
+      <c r="J198" t="s">
+        <v>25</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199">
+        <v>177</v>
+      </c>
+      <c r="C199">
+        <v>138.655</v>
+      </c>
+      <c r="D199">
+        <v>-0.8</v>
+      </c>
+      <c r="E199">
+        <v>0.4</v>
+      </c>
+      <c r="F199">
+        <v>138.69399999999999</v>
+      </c>
+      <c r="G199">
+        <v>-0.8</v>
+      </c>
+      <c r="H199">
+        <v>0.4</v>
+      </c>
+      <c r="I199" t="s">
+        <v>25</v>
+      </c>
+      <c r="J199" t="s">
+        <v>25</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>177</v>
+      </c>
+      <c r="C200">
+        <v>138.69399999999999</v>
+      </c>
+      <c r="D200">
+        <v>-0.4</v>
+      </c>
+      <c r="E200">
+        <v>0.8</v>
+      </c>
+      <c r="F200">
+        <v>138.733</v>
+      </c>
+      <c r="G200">
+        <v>-0.4</v>
+      </c>
+      <c r="H200">
+        <v>0.8</v>
+      </c>
+      <c r="I200" t="s">
+        <v>25</v>
+      </c>
+      <c r="J200" t="s">
+        <v>25</v>
+      </c>
+      <c r="K200">
         <v>0</v>
       </c>
     </row>
@@ -13530,10 +19410,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76DC57-EF49-44CE-8A21-D4353938F627}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14177,13 +20057,287 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>124.848</v>
+      </c>
+      <c r="B43">
+        <v>-1.3</v>
+      </c>
+      <c r="C43">
+        <v>0.6</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>124.86799999999999</v>
+      </c>
+      <c r="B44">
+        <v>-1.75</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>125.004</v>
+      </c>
+      <c r="B45">
+        <v>0.1</v>
+      </c>
+      <c r="C45">
+        <v>0.6</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
       <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>125.024</v>
+      </c>
+      <c r="B46">
+        <v>0.6</v>
+      </c>
+      <c r="C46">
+        <v>0.5</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>125.16</v>
+      </c>
+      <c r="B47">
+        <v>-0.7</v>
+      </c>
+      <c r="C47">
+        <v>0.6</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>125.18</v>
+      </c>
+      <c r="B48">
+        <v>-1.2</v>
+      </c>
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>125.316</v>
+      </c>
+      <c r="B49">
+        <v>0.7</v>
+      </c>
+      <c r="C49">
+        <v>0.6</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>125.336</v>
+      </c>
+      <c r="B50">
+        <v>1.2</v>
+      </c>
+      <c r="C50">
+        <v>0.5</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>125.47199999999999</v>
+      </c>
+      <c r="B51">
+        <v>-0.1</v>
+      </c>
+      <c r="C51">
+        <v>0.6</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>125.492</v>
+      </c>
+      <c r="B52">
+        <v>-0.6</v>
+      </c>
+      <c r="C52">
+        <v>0.5</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>125.628</v>
+      </c>
+      <c r="B53">
+        <v>1.3</v>
+      </c>
+      <c r="C53">
+        <v>0.6</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>125.648</v>
+      </c>
+      <c r="B54">
+        <v>1.75</v>
+      </c>
+      <c r="C54">
+        <v>0.5</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>138.42099999999999</v>
+      </c>
+      <c r="B55">
+        <v>-0.2</v>
+      </c>
+      <c r="C55">
+        <v>1.2</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>138.46</v>
+      </c>
+      <c r="B56">
+        <v>0.2</v>
+      </c>
+      <c r="C56">
+        <v>1.2</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>138.499</v>
+      </c>
+      <c r="B57">
+        <v>-0.2</v>
+      </c>
+      <c r="C57">
+        <v>1.2</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>138.53800000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.2</v>
+      </c>
+      <c r="C58">
+        <v>1.2</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>138.577</v>
+      </c>
+      <c r="B59">
+        <v>-0.2</v>
+      </c>
+      <c r="C59">
+        <v>1.2</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>138.61600000000001</v>
+      </c>
+      <c r="B60">
+        <v>0.2</v>
+      </c>
+      <c r="C60">
+        <v>1.2</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>138.655</v>
+      </c>
+      <c r="B61">
+        <v>-0.2</v>
+      </c>
+      <c r="C61">
+        <v>1.2</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>138.69399999999999</v>
+      </c>
+      <c r="B62">
+        <v>0.2</v>
+      </c>
+      <c r="C62">
+        <v>1.2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14195,10 +20349,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F96158-71D4-4C19-99F5-47E7932AF572}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14857,7 +21011,7 @@
         <v>0.5</v>
       </c>
       <c r="C39">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>0.25</v>
@@ -14874,7 +21028,7 @@
         <v>-0.5</v>
       </c>
       <c r="C40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>0.75</v>
@@ -15307,6 +21461,391 @@
       <c r="E65">
         <v>1</v>
       </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>126.703</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1.2</v>
+      </c>
+      <c r="D66">
+        <v>0.25</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>126.703</v>
+      </c>
+      <c r="B67">
+        <v>-1.4</v>
+      </c>
+      <c r="C67">
+        <v>1.2</v>
+      </c>
+      <c r="D67">
+        <v>0.25</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>127.17100000000001</v>
+      </c>
+      <c r="B68">
+        <v>-1.5</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0.125</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>128.578</v>
+      </c>
+      <c r="B69">
+        <v>1.4</v>
+      </c>
+      <c r="C69">
+        <v>1.2</v>
+      </c>
+      <c r="D69">
+        <v>0.25</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>128.73399999999998</v>
+      </c>
+      <c r="B70">
+        <v>-0.2</v>
+      </c>
+      <c r="C70">
+        <v>1.2</v>
+      </c>
+      <c r="D70">
+        <v>0.75</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>128.88999999999999</v>
+      </c>
+      <c r="B71">
+        <v>0.8</v>
+      </c>
+      <c r="C71">
+        <v>1.2</v>
+      </c>
+      <c r="D71">
+        <v>0.25</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>129.04599999999999</v>
+      </c>
+      <c r="B72">
+        <v>-0.8</v>
+      </c>
+      <c r="C72">
+        <v>1.2</v>
+      </c>
+      <c r="D72">
+        <v>0.75</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>130.453</v>
+      </c>
+      <c r="B73">
+        <v>-1</v>
+      </c>
+      <c r="C73">
+        <v>1.2</v>
+      </c>
+      <c r="D73">
+        <v>0.75</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>130.453</v>
+      </c>
+      <c r="B74">
+        <v>1.4</v>
+      </c>
+      <c r="C74">
+        <v>1.2</v>
+      </c>
+      <c r="D74">
+        <v>0.75</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>130.92099999999999</v>
+      </c>
+      <c r="B75">
+        <v>1.5</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0.875</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>134.203</v>
+      </c>
+      <c r="B76">
+        <v>-1</v>
+      </c>
+      <c r="C76">
+        <v>1.2</v>
+      </c>
+      <c r="D76">
+        <v>0.75</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>134.203</v>
+      </c>
+      <c r="B77">
+        <v>1.4</v>
+      </c>
+      <c r="C77">
+        <v>1.2</v>
+      </c>
+      <c r="D77">
+        <v>0.75</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>134.67099999999999</v>
+      </c>
+      <c r="B78">
+        <v>1.5</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0.875</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>139.828</v>
+      </c>
+      <c r="B79">
+        <v>-0.4</v>
+      </c>
+      <c r="C79">
+        <v>0.7</v>
+      </c>
+      <c r="D79">
+        <v>0.25</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>141.703</v>
+      </c>
+      <c r="B80">
+        <v>-0.5</v>
+      </c>
+      <c r="C80">
+        <v>0.7</v>
+      </c>
+      <c r="D80">
+        <v>0.75</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>143.578</v>
+      </c>
+      <c r="B81">
+        <v>0.4</v>
+      </c>
+      <c r="C81">
+        <v>0.7</v>
+      </c>
+      <c r="D81">
+        <v>0.75</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>145.453</v>
+      </c>
+      <c r="B82">
+        <v>0.5</v>
+      </c>
+      <c r="C82">
+        <v>0.7</v>
+      </c>
+      <c r="D82">
+        <v>0.25</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>147.328</v>
+      </c>
+      <c r="B83">
+        <v>-0.4</v>
+      </c>
+      <c r="C83">
+        <v>0.7</v>
+      </c>
+      <c r="D83">
+        <v>0.125</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>149.203</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0.7</v>
+      </c>
+      <c r="D84">
+        <v>0.875</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>151.078</v>
+      </c>
+      <c r="B85">
+        <v>-1</v>
+      </c>
+      <c r="C85">
+        <v>0.7</v>
+      </c>
+      <c r="D85">
+        <v>0.125</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15321,7 +21860,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/StreamingAssets/Songs/World Wide Web/Chart.xlsx
+++ b/Assets/StreamingAssets/Songs/World Wide Web/Chart.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Xenody-master\Assets\StreamingAssets\Songs\World Wide Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EC93A7-1496-4337-876E-DBC71FB44528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F5EE69-EB4A-448F-8A13-261BCF7F1EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
-    <sheet name="planes" sheetId="1" r:id="rId1"/>
-    <sheet name="taps" sheetId="2" r:id="rId2"/>
-    <sheet name="holds" sheetId="3" r:id="rId3"/>
-    <sheet name="slides" sheetId="4" r:id="rId4"/>
-    <sheet name="flicks" sheetId="5" r:id="rId5"/>
-    <sheet name="stars" sheetId="6" r:id="rId6"/>
+    <sheet name="speed" sheetId="7" r:id="rId1"/>
+    <sheet name="color" sheetId="8" r:id="rId2"/>
+    <sheet name="plane" sheetId="1" r:id="rId3"/>
+    <sheet name="tap" sheetId="2" r:id="rId4"/>
+    <sheet name="hold" sheetId="3" r:id="rId5"/>
+    <sheet name="slide" sheetId="4" r:id="rId6"/>
+    <sheet name="flick" sheetId="5" r:id="rId7"/>
+    <sheet name="star" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">stars!$O$49:$O$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">star!$O$49:$O$51</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#63b8ff</t>
   </si>
   <si>
@@ -144,10 +142,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#E0EEE0</t>
+    <t>#f0ffff</t>
   </si>
   <si>
-    <t>#f0ffff</t>
+    <t>Lcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ucolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -158,7 +165,7 @@
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,12 +185,6 @@
       <sz val="11"/>
       <color rgb="FF5F5F5F"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -209,7 +210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,9 +221,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,2448 +536,2073 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA789EFB-BCA3-4FCA-98D4-565CD71AE543}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9C96A9-1D89-4E37-B465-2098CA6EFD66}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>999</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB3F29-4751-4825-9A13-CD8F2FFC98B2}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>154.828</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA789EFB-BCA3-4FCA-98D4-565CD71AE543}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B33" si="0">VLOOKUP(A2,$I$1:$J$99,2,FALSE)</f>
-        <v>#63b8ff</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>33.420999999999999</v>
       </c>
       <c r="E2">
-        <v>33.420999999999999</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B3">
+        <v>32.015000000000001</v>
       </c>
       <c r="C3">
-        <v>32.015000000000001</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>32.482999999999997</v>
       </c>
       <c r="E3">
-        <v>32.482999999999997</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B4">
+        <v>32.482999999999997</v>
       </c>
       <c r="C4">
-        <v>32.482999999999997</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>32.951000000000001</v>
       </c>
       <c r="E4">
-        <v>32.951000000000001</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B5">
+        <v>32.482999999999997</v>
       </c>
       <c r="C5">
-        <v>32.482999999999997</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>32.951000000000001</v>
       </c>
       <c r="E5">
-        <v>32.951000000000001</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B6">
+        <v>32.951000000000001</v>
       </c>
       <c r="C6">
-        <v>32.951000000000001</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>33.420999999999999</v>
       </c>
       <c r="E6">
-        <v>33.420999999999999</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B7">
+        <v>32.951000000000001</v>
       </c>
       <c r="C7">
-        <v>32.951000000000001</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>33.420999999999999</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>33.420999999999999</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>#63b8ff</v>
-      </c>
       <c r="C8">
-        <v>33.420999999999999</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>33.89</v>
       </c>
       <c r="E8">
-        <v>33.89</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B9">
+        <v>33.420999999999999</v>
       </c>
       <c r="C9">
-        <v>33.420999999999999</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>33.89</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>33.89</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>#63b8ff</v>
-      </c>
       <c r="C10">
-        <v>33.89</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>48.89</v>
       </c>
       <c r="E10">
-        <v>48.89</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B11">
+        <v>33.89</v>
       </c>
       <c r="C11">
-        <v>33.89</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>48.89</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>48.89</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>49.241999999999997</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C12">
-        <v>48.89</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>49.241999999999997</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B13">
+        <v>48.89</v>
       </c>
       <c r="C13">
-        <v>48.89</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>49.241999999999997</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
         <v>49.241999999999997</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>56.39</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C14">
-        <v>49.241999999999997</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>56.39</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B15">
+        <v>49.241999999999997</v>
       </c>
       <c r="C15">
-        <v>49.241999999999997</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>56.39</v>
       </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
         <v>56.39</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>56.741999999999997</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C16">
-        <v>56.39</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>56.741999999999997</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B17">
+        <v>56.39</v>
       </c>
       <c r="C17">
-        <v>56.39</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>56.741999999999997</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
         <v>56.741999999999997</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>62.015000000000001</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C18">
-        <v>56.741999999999997</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>62.015000000000001</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B19">
+        <v>56.741999999999997</v>
       </c>
       <c r="C19">
-        <v>56.741999999999997</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>62.484000000000002</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>62.015000000000001</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>62.484000000000002</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>62.484000000000002</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>63.89</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C20">
-        <v>62.015000000000001</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>62.484000000000002</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C21">
-        <v>62.484000000000002</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>63.89</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B22">
+        <v>62.015000000000001</v>
       </c>
       <c r="C22">
-        <v>62.015000000000001</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>62.484000000000002</v>
       </c>
       <c r="E22">
-        <v>62.484000000000002</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B23">
+        <v>62.484000000000002</v>
       </c>
       <c r="C23">
-        <v>62.484000000000002</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>62.953000000000003</v>
       </c>
       <c r="E23">
-        <v>62.953000000000003</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B24">
+        <v>62.953000000000003</v>
       </c>
       <c r="C24">
-        <v>62.953000000000003</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>63.304000000000002</v>
       </c>
       <c r="E24">
-        <v>63.304000000000002</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B25">
+        <v>62.484000000000002</v>
       </c>
       <c r="C25">
-        <v>62.484000000000002</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>62.953000000000003</v>
       </c>
       <c r="E25">
-        <v>62.953000000000003</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>#f0ffff</v>
+      <c r="B26">
+        <v>62.953000000000003</v>
       </c>
       <c r="C26">
-        <v>62.953000000000003</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>63.304000000000002</v>
       </c>
       <c r="E26">
-        <v>63.304000000000002</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>#63b8ff</v>
+      <c r="B27">
+        <v>63.89</v>
       </c>
       <c r="C27">
-        <v>63.89</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>64.358999999999995</v>
       </c>
       <c r="E27">
+        <v>0.6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
         <v>64.358999999999995</v>
       </c>
-      <c r="F27">
+      <c r="C28">
         <v>0.6</v>
       </c>
-      <c r="G27" t="s">
+      <c r="D28">
+        <v>65.765000000000001</v>
+      </c>
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+      <c r="F28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C28">
-        <v>64.358999999999995</v>
-      </c>
-      <c r="D28">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>65.765000000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.2</v>
+      </c>
+      <c r="D29">
+        <v>66.233999999999995</v>
+      </c>
+      <c r="E29">
+        <v>0.8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>66.233999999999995</v>
+      </c>
+      <c r="C30">
+        <v>0.8</v>
+      </c>
+      <c r="D30">
+        <v>67.64</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>67.64</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>68.108999999999995</v>
+      </c>
+      <c r="E31">
         <v>0.6</v>
       </c>
-      <c r="E28">
-        <v>65.765000000000001</v>
-      </c>
-      <c r="F28">
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>68.108999999999995</v>
+      </c>
+      <c r="C32">
+        <v>0.6</v>
+      </c>
+      <c r="D32">
+        <v>69.515000000000001</v>
+      </c>
+      <c r="E32">
         <v>0.2</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C29">
-        <v>65.765000000000001</v>
-      </c>
-      <c r="D29">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>69.515000000000001</v>
+      </c>
+      <c r="C33">
         <v>0.2</v>
       </c>
-      <c r="E29">
-        <v>66.233999999999995</v>
-      </c>
-      <c r="F29">
+      <c r="D33">
+        <v>69.983999999999995</v>
+      </c>
+      <c r="E33">
         <v>0.8</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C30">
-        <v>66.233999999999995</v>
-      </c>
-      <c r="D30">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>69.983999999999995</v>
+      </c>
+      <c r="C34">
         <v>0.8</v>
       </c>
-      <c r="E30">
-        <v>67.64</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="D34">
+        <v>71.39</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C31">
-        <v>67.64</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>68.108999999999995</v>
-      </c>
-      <c r="F31">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>71.39</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>71.858999999999995</v>
+      </c>
+      <c r="E35">
         <v>0.6</v>
       </c>
-      <c r="G31" t="s">
+      <c r="F35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C32">
-        <v>68.108999999999995</v>
-      </c>
-      <c r="D32">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>71.858999999999995</v>
+      </c>
+      <c r="C36">
         <v>0.6</v>
       </c>
-      <c r="E32">
-        <v>69.515000000000001</v>
-      </c>
-      <c r="F32">
+      <c r="D36">
+        <v>73.265000000000001</v>
+      </c>
+      <c r="E36">
         <v>0.2</v>
       </c>
-      <c r="G32" t="s">
+      <c r="F36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C33">
-        <v>69.515000000000001</v>
-      </c>
-      <c r="D33">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>73.265000000000001</v>
+      </c>
+      <c r="C37">
         <v>0.2</v>
       </c>
-      <c r="E33">
-        <v>69.983999999999995</v>
-      </c>
-      <c r="F33">
+      <c r="D37">
+        <v>73.733999999999995</v>
+      </c>
+      <c r="E37">
         <v>0.8</v>
       </c>
-      <c r="G33" t="s">
+      <c r="F37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" ref="B34:B65" si="1">VLOOKUP(A34,$I$1:$J$99,2,FALSE)</f>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C34">
-        <v>69.983999999999995</v>
-      </c>
-      <c r="D34">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>73.733999999999995</v>
+      </c>
+      <c r="C38">
         <v>0.8</v>
       </c>
-      <c r="E34">
-        <v>71.39</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="D38">
+        <v>75.14</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C35">
-        <v>71.39</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>71.858999999999995</v>
-      </c>
-      <c r="F35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>75.14</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>75.608999999999995</v>
+      </c>
+      <c r="E39">
         <v>0.6</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C36">
-        <v>71.858999999999995</v>
-      </c>
-      <c r="D36">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>75.608999999999995</v>
+      </c>
+      <c r="C40">
         <v>0.6</v>
       </c>
-      <c r="E36">
-        <v>73.265000000000001</v>
-      </c>
-      <c r="F36">
-        <v>0.2</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="D40">
+        <v>77.015000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C37">
-        <v>73.265000000000001</v>
-      </c>
-      <c r="D37">
-        <v>0.2</v>
-      </c>
-      <c r="E37">
-        <v>73.733999999999995</v>
-      </c>
-      <c r="F37">
-        <v>0.8</v>
-      </c>
-      <c r="G37" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>77.015000000000001</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>78.89</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C38">
-        <v>73.733999999999995</v>
-      </c>
-      <c r="D38">
-        <v>0.8</v>
-      </c>
-      <c r="E38">
-        <v>75.14</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>78.89</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>79.358999999999995</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C39">
-        <v>75.14</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>75.608999999999995</v>
-      </c>
-      <c r="F39">
-        <v>0.6</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C40">
-        <v>75.608999999999995</v>
-      </c>
-      <c r="D40">
-        <v>0.6</v>
-      </c>
-      <c r="E40">
-        <v>77.015000000000001</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C41">
-        <v>77.015000000000001</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>78.89</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C42">
-        <v>78.89</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>79.358999999999995</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7</v>
       </c>
-      <c r="B43" t="str">
-        <f t="shared" si="1"/>
-        <v>#f0ffff</v>
+      <c r="B43">
+        <v>78.89</v>
       </c>
       <c r="C43">
-        <v>78.89</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>79.358999999999995</v>
       </c>
       <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
         <v>79.358999999999995</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>80.765000000000001</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C44">
-        <v>79.358999999999995</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>80.765000000000001</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7</v>
       </c>
-      <c r="B45" t="str">
-        <f t="shared" si="1"/>
-        <v>#f0ffff</v>
+      <c r="B45">
+        <v>79.358999999999995</v>
       </c>
       <c r="C45">
-        <v>79.358999999999995</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>80.765000000000001</v>
       </c>
       <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
         <v>80.765000000000001</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>81.233999999999995</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C46">
-        <v>80.765000000000001</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>81.233999999999995</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7</v>
       </c>
-      <c r="B47" t="str">
-        <f t="shared" si="1"/>
-        <v>#f0ffff</v>
+      <c r="B47">
+        <v>80.765000000000001</v>
       </c>
       <c r="C47">
-        <v>80.765000000000001</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>81.233999999999995</v>
       </c>
       <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
         <v>81.233999999999995</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>82.64</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C48">
-        <v>81.233999999999995</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>82.64</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7</v>
       </c>
-      <c r="B49" t="str">
-        <f t="shared" si="1"/>
-        <v>#f0ffff</v>
+      <c r="B49">
+        <v>81.233999999999995</v>
       </c>
       <c r="C49">
-        <v>81.233999999999995</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>82.64</v>
       </c>
       <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
         <v>82.64</v>
       </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>83.108999999999995</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C50">
-        <v>82.64</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>83.108999999999995</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>7</v>
       </c>
-      <c r="B51" t="str">
-        <f t="shared" si="1"/>
-        <v>#f0ffff</v>
+      <c r="B51">
+        <v>82.64</v>
       </c>
       <c r="C51">
-        <v>82.64</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>83.108999999999995</v>
       </c>
       <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
         <v>83.108999999999995</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>84.515000000000001</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C52">
-        <v>83.108999999999995</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>84.515000000000001</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7</v>
       </c>
-      <c r="B53" t="str">
-        <f t="shared" si="1"/>
-        <v>#f0ffff</v>
+      <c r="B53">
+        <v>83.108999999999995</v>
       </c>
       <c r="C53">
-        <v>83.108999999999995</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>84.515000000000001</v>
       </c>
       <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
         <v>84.515000000000001</v>
       </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>84.983999999999995</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C54">
-        <v>84.515000000000001</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>84.983999999999995</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7</v>
       </c>
-      <c r="B55" t="str">
-        <f t="shared" si="1"/>
-        <v>#f0ffff</v>
+      <c r="B55">
+        <v>84.515000000000001</v>
       </c>
       <c r="C55">
-        <v>84.515000000000001</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>84.983999999999995</v>
       </c>
       <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
         <v>84.983999999999995</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>86.39</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C56">
-        <v>84.983999999999995</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>86.39</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7</v>
       </c>
-      <c r="B57" t="str">
-        <f t="shared" si="1"/>
-        <v>#f0ffff</v>
+      <c r="B57">
+        <v>84.983999999999995</v>
       </c>
       <c r="C57">
-        <v>84.983999999999995</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>86.39</v>
       </c>
       <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
         <v>86.39</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>86.858999999999995</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C58">
-        <v>86.39</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>86.858999999999995</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>7</v>
       </c>
-      <c r="B59" t="str">
-        <f t="shared" si="1"/>
-        <v>#f0ffff</v>
+      <c r="B59">
+        <v>86.39</v>
       </c>
       <c r="C59">
-        <v>86.39</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>86.858999999999995</v>
       </c>
       <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
         <v>86.858999999999995</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>88.265000000000001</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C60">
-        <v>86.858999999999995</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>88.265000000000001</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>7</v>
       </c>
-      <c r="B61" t="str">
-        <f t="shared" si="1"/>
-        <v>#f0ffff</v>
+      <c r="B61">
+        <v>86.858999999999995</v>
       </c>
       <c r="C61">
-        <v>86.858999999999995</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>88.265000000000001</v>
       </c>
       <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
         <v>88.265000000000001</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>88.733999999999995</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C62">
-        <v>88.265000000000001</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>88.733999999999995</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>7</v>
       </c>
-      <c r="B63" t="str">
-        <f t="shared" si="1"/>
-        <v>#f0ffff</v>
+      <c r="B63">
+        <v>88.265000000000001</v>
       </c>
       <c r="C63">
-        <v>88.265000000000001</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>88.733999999999995</v>
       </c>
       <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
         <v>88.733999999999995</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>90.14</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64" t="str">
-        <f t="shared" si="1"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C64">
-        <v>88.733999999999995</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>90.14</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7</v>
       </c>
-      <c r="B65" t="str">
-        <f t="shared" si="1"/>
-        <v>#f0ffff</v>
+      <c r="B65">
+        <v>88.733999999999995</v>
       </c>
       <c r="C65">
-        <v>88.733999999999995</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>90.14</v>
       </c>
       <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
         <v>90.14</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>90.608999999999995</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66" t="str">
-        <f t="shared" ref="B66:B93" si="2">VLOOKUP(A66,$I$1:$J$99,2,FALSE)</f>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C66">
-        <v>90.14</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>90.608999999999995</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7</v>
       </c>
-      <c r="B67" t="str">
-        <f t="shared" si="2"/>
-        <v>#f0ffff</v>
+      <c r="B67">
+        <v>90.14</v>
       </c>
       <c r="C67">
-        <v>90.14</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>90.608999999999995</v>
       </c>
       <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
         <v>90.608999999999995</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>92.015000000000001</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C68">
-        <v>90.608999999999995</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>92.015000000000001</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7</v>
       </c>
-      <c r="B69" t="str">
-        <f t="shared" si="2"/>
-        <v>#f0ffff</v>
+      <c r="B69">
+        <v>90.608999999999995</v>
       </c>
       <c r="C69">
-        <v>90.608999999999995</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>92.015000000000001</v>
       </c>
       <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
         <v>92.015000000000001</v>
       </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>92.953000000000003</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C70">
-        <v>92.015000000000001</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>92.953000000000003</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>7</v>
       </c>
-      <c r="B71" t="str">
-        <f t="shared" si="2"/>
-        <v>#f0ffff</v>
+      <c r="B71">
+        <v>92.015000000000001</v>
       </c>
       <c r="C71">
-        <v>92.015000000000001</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>92.953000000000003</v>
       </c>
       <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
         <v>92.953000000000003</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>93.421000000000006</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C72">
-        <v>92.953000000000003</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>93.421000000000006</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7</v>
       </c>
-      <c r="B73" t="str">
-        <f t="shared" si="2"/>
-        <v>#f0ffff</v>
+      <c r="B73">
+        <v>92.953000000000003</v>
       </c>
       <c r="C73">
-        <v>92.953000000000003</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>93.421000000000006</v>
       </c>
       <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
         <v>93.421000000000006</v>
       </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>123.89</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C74">
-        <v>93.421000000000006</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>123.89</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>7</v>
       </c>
-      <c r="B75" t="str">
-        <f t="shared" si="2"/>
-        <v>#f0ffff</v>
+      <c r="B75">
+        <v>93.421000000000006</v>
       </c>
       <c r="C75">
-        <v>93.421000000000006</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>108.89</v>
       </c>
       <c r="E75">
-        <v>108.89</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>7</v>
       </c>
-      <c r="B76" t="str">
-        <f t="shared" si="2"/>
-        <v>#f0ffff</v>
+      <c r="B76">
+        <v>108.89</v>
       </c>
       <c r="C76">
-        <v>108.89</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>109.35899999999999</v>
       </c>
       <c r="E76">
-        <v>109.35899999999999</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8</v>
       </c>
-      <c r="B77" t="str">
-        <f t="shared" si="2"/>
-        <v>#E0EEE0</v>
+      <c r="B77">
+        <v>107.015</v>
       </c>
       <c r="C77">
-        <v>107.015</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>107.48399999999999</v>
       </c>
       <c r="E77">
-        <v>107.48399999999999</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>8</v>
       </c>
-      <c r="B78" t="str">
-        <f t="shared" si="2"/>
-        <v>#E0EEE0</v>
+      <c r="B78">
+        <v>107.48399999999999</v>
       </c>
       <c r="C78">
-        <v>107.48399999999999</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>107.953</v>
       </c>
       <c r="E78">
-        <v>107.953</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>9</v>
       </c>
-      <c r="B79" t="str">
-        <f t="shared" si="2"/>
-        <v>#E0EEE0</v>
+      <c r="B79">
+        <v>107.953</v>
       </c>
       <c r="C79">
-        <v>107.953</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>108.42100000000001</v>
       </c>
       <c r="E79">
-        <v>108.42100000000001</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>9</v>
       </c>
-      <c r="B80" t="str">
-        <f t="shared" si="2"/>
-        <v>#E0EEE0</v>
+      <c r="B80">
+        <v>108.42100000000001</v>
       </c>
       <c r="C80">
-        <v>108.42100000000001</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>108.89</v>
       </c>
       <c r="E80">
-        <v>108.89</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>9</v>
       </c>
-      <c r="B81" t="str">
-        <f t="shared" si="2"/>
-        <v>#E0EEE0</v>
+      <c r="B81">
+        <v>108.89</v>
       </c>
       <c r="C81">
-        <v>108.89</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>109.35899999999999</v>
       </c>
       <c r="E81">
-        <v>109.35899999999999</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
-      <c r="B82" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
+      <c r="B82">
+        <v>123.89</v>
       </c>
       <c r="C82">
-        <v>123.89</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>124.35899999999999</v>
       </c>
       <c r="E82">
+        <v>0.8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
         <v>124.35899999999999</v>
       </c>
-      <c r="F82">
+      <c r="C83">
         <v>0.8</v>
       </c>
-      <c r="G82" t="s">
+      <c r="D83">
+        <v>125.765</v>
+      </c>
+      <c r="E83">
+        <v>0.8</v>
+      </c>
+      <c r="F83" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C83">
-        <v>124.35899999999999</v>
-      </c>
-      <c r="D83">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>125.765</v>
+      </c>
+      <c r="C84">
         <v>0.8</v>
       </c>
-      <c r="E83">
-        <v>125.765</v>
-      </c>
-      <c r="F83">
+      <c r="D84">
+        <v>126.23399999999999</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>126.23399999999999</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>127.64</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>127.64</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>128.10900000000001</v>
+      </c>
+      <c r="E86">
         <v>0.8</v>
       </c>
-      <c r="G83" t="s">
+      <c r="F86" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="B84" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C84">
-        <v>125.765</v>
-      </c>
-      <c r="D84">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>128.10900000000001</v>
+      </c>
+      <c r="C87">
         <v>0.8</v>
       </c>
-      <c r="E84">
-        <v>126.23399999999999</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="D87">
+        <v>129.51499999999999</v>
+      </c>
+      <c r="E87">
+        <v>0.8</v>
+      </c>
+      <c r="F87" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>1</v>
-      </c>
-      <c r="B85" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C85">
-        <v>126.23399999999999</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>127.64</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>129.51499999999999</v>
+      </c>
+      <c r="C88">
+        <v>0.8</v>
+      </c>
+      <c r="D88">
+        <v>129.98400000000001</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C86">
-        <v>127.64</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>128.10900000000001</v>
-      </c>
-      <c r="F86">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>129.98400000000001</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>131.38999999999999</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>131.38999999999999</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>131.85900000000001</v>
+      </c>
+      <c r="E90">
         <v>0.8</v>
       </c>
-      <c r="G86" t="s">
+      <c r="F90" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C87">
-        <v>128.10900000000001</v>
-      </c>
-      <c r="D87">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>131.85900000000001</v>
+      </c>
+      <c r="C91">
         <v>0.8</v>
       </c>
-      <c r="E87">
-        <v>129.51499999999999</v>
-      </c>
-      <c r="F87">
+      <c r="D91">
+        <v>133.26499999999999</v>
+      </c>
+      <c r="E91">
         <v>0.8</v>
       </c>
-      <c r="G87" t="s">
+      <c r="F91" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C88">
-        <v>129.51499999999999</v>
-      </c>
-      <c r="D88">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>133.26499999999999</v>
+      </c>
+      <c r="C92">
         <v>0.8</v>
       </c>
-      <c r="E88">
-        <v>129.98400000000001</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="D92">
+        <v>133.73400000000001</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C89">
-        <v>129.98400000000001</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>131.38999999999999</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>133.73400000000001</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>135.13999999999999</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C90">
-        <v>131.38999999999999</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>131.85900000000001</v>
-      </c>
-      <c r="F90">
-        <v>0.8</v>
-      </c>
-      <c r="G90" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>135.13999999999999</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>135.60900000000001</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C91">
-        <v>131.85900000000001</v>
-      </c>
-      <c r="D91">
-        <v>0.8</v>
-      </c>
-      <c r="E91">
-        <v>133.26499999999999</v>
-      </c>
-      <c r="F91">
-        <v>0.8</v>
-      </c>
-      <c r="G91" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C92">
-        <v>133.26499999999999</v>
-      </c>
-      <c r="D92">
-        <v>0.8</v>
-      </c>
-      <c r="E92">
-        <v>133.73400000000001</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93" t="str">
-        <f t="shared" si="2"/>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C93">
-        <v>133.73400000000001</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>135.13999999999999</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>1</v>
-      </c>
-      <c r="B94" t="str">
-        <f t="shared" ref="B94" si="3">VLOOKUP(A94,$I$1:$J$99,2,FALSE)</f>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C94">
-        <v>135.13999999999999</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>135.60900000000001</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10</v>
       </c>
-      <c r="B95" t="str">
-        <f t="shared" ref="B95" si="4">VLOOKUP(A95,$I$1:$J$99,2,FALSE)</f>
-        <v>#f0ffff</v>
+      <c r="B95">
+        <v>135.13999999999999</v>
       </c>
       <c r="C95">
-        <v>135.13999999999999</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>138.88999999999999</v>
       </c>
       <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>135.60900000000001</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>137.01499999999999</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>137.01499999999999</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
         <v>138.88999999999999</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>1</v>
-      </c>
-      <c r="B96" t="str">
-        <f>VLOOKUP(A96,$I$1:$J$99,2,FALSE)</f>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C96">
-        <v>135.60900000000001</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>137.01499999999999</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>1</v>
-      </c>
-      <c r="B97" t="str">
-        <f t="shared" ref="B97" si="5">VLOOKUP(A97,$I$1:$J$99,2,FALSE)</f>
-        <v>#63b8ff</v>
-      </c>
-      <c r="C97">
-        <v>137.01499999999999</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
         <v>138.88999999999999</v>
       </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98" t="str">
-        <f t="shared" ref="B98" si="6">VLOOKUP(A98,$I$1:$J$99,2,FALSE)</f>
-        <v>#63b8ff</v>
-      </c>
       <c r="C98">
-        <v>138.88999999999999</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>154.828</v>
       </c>
       <c r="E98">
-        <v>154.828</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2990,7 +2613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7059D0-50D6-42B0-899B-7876B4BEDB4C}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D668"/>
@@ -12360,13 +11983,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967B2D43-E0B0-4050-83A2-AF5C6E5EE029}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193:E200"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12403,7 +12026,7 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -19407,7 +19030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C76DC57-EF49-44CE-8A21-D4353938F627}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J62"/>
@@ -20346,12 +19969,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F96158-71D4-4C19-99F5-47E7932AF572}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
@@ -21854,13 +21477,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192095B2-1BEA-4365-B4DE-88EEBB6E4423}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/StreamingAssets/Songs/World Wide Web/Chart.xlsx
+++ b/Assets/StreamingAssets/Songs/World Wide Web/Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Xenody-master\Assets\StreamingAssets\Songs\World Wide Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xenody-main\Assets\StreamingAssets\Songs\World Wide Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F5EE69-EB4A-448F-8A13-261BCF7F1EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6252C739-5A9C-403D-9381-D95DE9A50C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="speed" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB3F29-4751-4825-9A13-CD8F2FFC98B2}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
@@ -21480,15 +21492,15 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192095B2-1BEA-4365-B4DE-88EEBB6E4423}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -21518,6 +21530,15 @@
       </c>
       <c r="J1" t="s">
         <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Songs/World Wide Web/Chart.xlsx
+++ b/Assets/StreamingAssets/Songs/World Wide Web/Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xenody-main\Assets\StreamingAssets\Songs\World Wide Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Xenody-master\Assets\StreamingAssets\Songs\World Wide Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6252C739-5A9C-403D-9381-D95DE9A50C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393E23CE-91BC-473E-AD78-E95349A5C597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="speed" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,14 +145,6 @@
     <t>#f0ffff</t>
   </si>
   <si>
-    <t>Lcolor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ucolor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +158,22 @@
   </si>
   <si>
     <t>Rot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartLcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartUcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndLcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndUcolor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +573,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -587,15 +595,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB3F29-4751-4825-9A13-CD8F2FFC98B2}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -603,13 +611,19 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -21494,8 +21508,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21532,13 +21546,13 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
         <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
